--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giakr\Desktop\Drive\Unibocconi\5th Year\Español\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0005E7-EB80-4B64-9F18-3D1CC6547D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29909D19-30C3-4785-BCCD-181349C63DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{A36FB878-3E47-4FBA-97BD-2EA8ACE80C21}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{A36FB878-3E47-4FBA-97BD-2EA8ACE80C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
   <si>
     <t>A corto plazo</t>
   </si>
@@ -323,6 +323,303 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>Accompagnare</t>
+  </si>
+  <si>
+    <t>Acompañar</t>
+  </si>
+  <si>
+    <t>Consigliare</t>
+  </si>
+  <si>
+    <t>Aconsejar</t>
+  </si>
+  <si>
+    <t>Concordare</t>
+  </si>
+  <si>
+    <t>Acordar</t>
+  </si>
+  <si>
+    <t>Ricordare</t>
+  </si>
+  <si>
+    <t>Acordarse de</t>
+  </si>
+  <si>
+    <t>Mobbing</t>
+  </si>
+  <si>
+    <t>Acoso laboral</t>
+  </si>
+  <si>
+    <t>Coricarsi</t>
+  </si>
+  <si>
+    <t>Acostarse</t>
+  </si>
+  <si>
+    <t>Abituarsi</t>
+  </si>
+  <si>
+    <t>Acostumbrarse</t>
+  </si>
+  <si>
+    <t>Attività; Mansione</t>
+  </si>
+  <si>
+    <t>Activitad</t>
+  </si>
+  <si>
+    <t>Attivi</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Evento sociale</t>
+  </si>
+  <si>
+    <t>Acto social</t>
+  </si>
+  <si>
+    <t>Attore</t>
+  </si>
+  <si>
+    <t>Attrice</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Actriz</t>
+  </si>
+  <si>
+    <t>Aggiornamento</t>
+  </si>
+  <si>
+    <t>Actualización</t>
+  </si>
+  <si>
+    <t>Arrivare; Rivolgersi</t>
+  </si>
+  <si>
+    <t>Acudir</t>
+  </si>
+  <si>
+    <t>Accumulato</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
+  </si>
+  <si>
+    <t>Accumulata</t>
+  </si>
+  <si>
+    <t>Acumulada</t>
+  </si>
+  <si>
+    <t>Adeguato</t>
+  </si>
+  <si>
+    <t>Adeguado</t>
+  </si>
+  <si>
+    <t>Adeguata</t>
+  </si>
+  <si>
+    <t>Adeguada</t>
+  </si>
+  <si>
+    <t>Anticipo</t>
+  </si>
+  <si>
+    <t>Adelanto</t>
+  </si>
+  <si>
+    <t>Inoltre</t>
+  </si>
+  <si>
+    <t>Además</t>
+  </si>
+  <si>
+    <t>Debito</t>
+  </si>
+  <si>
+    <t>Adeudo</t>
+  </si>
+  <si>
+    <t>Aderire; Afferire</t>
+  </si>
+  <si>
+    <t>Adherir</t>
+  </si>
+  <si>
+    <t>Addestrato</t>
+  </si>
+  <si>
+    <t>Adiestrado</t>
+  </si>
+  <si>
+    <t>Addestrata</t>
+  </si>
+  <si>
+    <t>Adiestrada</t>
+  </si>
+  <si>
+    <t>Addestrare</t>
+  </si>
+  <si>
+    <t>Adiestrar</t>
+  </si>
+  <si>
+    <t>Ciao (arrivederci)</t>
+  </si>
+  <si>
+    <t>Adiós</t>
+  </si>
+  <si>
+    <t>Beneficiario</t>
+  </si>
+  <si>
+    <t>Adjucatario</t>
+  </si>
+  <si>
+    <t>Beneficiaria</t>
+  </si>
+  <si>
+    <t>Adjucataria</t>
+  </si>
+  <si>
+    <t>Allegare</t>
+  </si>
+  <si>
+    <t>Adjuntar</t>
+  </si>
+  <si>
+    <t>Ammiratore</t>
+  </si>
+  <si>
+    <t>Admirador</t>
+  </si>
+  <si>
+    <t>Ammiratrice</t>
+  </si>
+  <si>
+    <t>Admiradora</t>
+  </si>
+  <si>
+    <t>Adottare</t>
+  </si>
+  <si>
+    <t>Adoptar</t>
+  </si>
+  <si>
+    <t>Assumere un atteggiamento</t>
+  </si>
+  <si>
+    <t>Adoptar una postura</t>
+  </si>
+  <si>
+    <t>Adulatore</t>
+  </si>
+  <si>
+    <t>Adulador</t>
+  </si>
+  <si>
+    <t>Adulatrice</t>
+  </si>
+  <si>
+    <t>Aduladora</t>
+  </si>
+  <si>
+    <t>Avversità</t>
+  </si>
+  <si>
+    <t>Adversidad</t>
+  </si>
+  <si>
+    <t>Aeropuerto</t>
+  </si>
+  <si>
+    <t>Aeroporto</t>
+  </si>
+  <si>
+    <t>Gentile</t>
+  </si>
+  <si>
+    <t>Afable</t>
+  </si>
+  <si>
+    <t>Colpire</t>
+  </si>
+  <si>
+    <t>Afectar</t>
+  </si>
+  <si>
+    <t>Farsi la barba</t>
+  </si>
+  <si>
+    <t>Afeitarse</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Afición</t>
+  </si>
+  <si>
+    <t>Affermare</t>
+  </si>
+  <si>
+    <t>Afirmar</t>
+  </si>
+  <si>
+    <t>Fortunatamente; Per fortuna</t>
+  </si>
+  <si>
+    <t>Afortunadamente</t>
+  </si>
+  <si>
+    <t>Agenzia</t>
+  </si>
+  <si>
+    <t>Agencia</t>
+  </si>
+  <si>
+    <t>Agenzia immobiliare</t>
+  </si>
+  <si>
+    <t>Agencia inmobiliaria</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Agente commerciale</t>
+  </si>
+  <si>
+    <t>Agente comercial</t>
+  </si>
+  <si>
+    <t>Sfinito</t>
+  </si>
+  <si>
+    <t>Agotado</t>
+  </si>
+  <si>
+    <t>Sfinita</t>
+  </si>
+  <si>
+    <t>Agotada</t>
+  </si>
+  <si>
+    <t>Piacevole</t>
+  </si>
+  <si>
+    <t>Agradable</t>
   </si>
 </sst>
 </file>
@@ -399,8 +696,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}" name="Table1" displayName="Table1" ref="A1:B48" totalsRowShown="0">
-  <autoFilter ref="A1:B48" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}" name="Table1" displayName="Table1" ref="A1:B98" totalsRowShown="0">
+  <autoFilter ref="A1:B98" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{6A47DAB4-1566-467C-B639-7E1EF1F26C99}" name="Italian"/>
     <tableColumn id="3" xr3:uid="{5FAE1A2D-84EA-4A6B-A4AE-4E5878A91B15}" name="Spanish"/>
@@ -706,19 +1003,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431EFD82-E282-4144-8023-55DF8DD0622C}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -726,7 +1023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -742,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -750,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -758,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -766,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -774,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -782,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -790,7 +1087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -798,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -806,7 +1103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -814,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -822,15 +1119,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -838,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -846,7 +1143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -854,7 +1151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -862,7 +1159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -870,7 +1167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -878,7 +1175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -886,7 +1183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -894,7 +1191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -902,7 +1199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -910,7 +1207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -918,7 +1215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -926,7 +1223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -934,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -942,7 +1239,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -950,7 +1247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -958,7 +1255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -966,7 +1263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -974,7 +1271,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -982,7 +1279,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -990,7 +1287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -998,7 +1295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1006,7 +1303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1014,7 +1311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1022,7 +1319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1030,7 +1327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1038,7 +1335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1046,7 +1343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1054,7 +1351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1062,7 +1359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -1070,7 +1367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -1078,7 +1375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -1086,7 +1383,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1094,12 +1391,412 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giakr\Desktop\Drive\Unibocconi\5th Year\Español\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29909D19-30C3-4785-BCCD-181349C63DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739F95D7-B8BC-41C4-A37F-3F8C92593FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{A36FB878-3E47-4FBA-97BD-2EA8ACE80C21}"/>
+    <workbookView xWindow="-26490" yWindow="-1095" windowWidth="14340" windowHeight="7245" xr2:uid="{A36FB878-3E47-4FBA-97BD-2EA8ACE80C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="690">
   <si>
     <t>A corto plazo</t>
   </si>
@@ -620,6 +620,1491 @@
   </si>
   <si>
     <t>Agradable</t>
+  </si>
+  <si>
+    <t>Ringraziare</t>
+  </si>
+  <si>
+    <t>Agradecer</t>
+  </si>
+  <si>
+    <t>Acqua</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Acqua gassata</t>
+  </si>
+  <si>
+    <t>Agua con gas</t>
+  </si>
+  <si>
+    <t>Sopportare; Soffrire; Tenere</t>
+  </si>
+  <si>
+    <t>Aguantar</t>
+  </si>
+  <si>
+    <t>Acqua non gassata</t>
+  </si>
+  <si>
+    <t>Agua sin gas</t>
+  </si>
+  <si>
+    <t>Lì</t>
+  </si>
+  <si>
+    <t>Ahí</t>
+  </si>
+  <si>
+    <t>Figlioccio</t>
+  </si>
+  <si>
+    <t>Ahijado</t>
+  </si>
+  <si>
+    <t>Figlioccia</t>
+  </si>
+  <si>
+    <t>Ahijada</t>
+  </si>
+  <si>
+    <t>Adesso; Ora</t>
+  </si>
+  <si>
+    <t>Ahora</t>
+  </si>
+  <si>
+    <t>Risparmiatore</t>
+  </si>
+  <si>
+    <t>Ahorrador</t>
+  </si>
+  <si>
+    <t>Risparmiatrice</t>
+  </si>
+  <si>
+    <t>Ahorradora</t>
+  </si>
+  <si>
+    <t>Risparmiare</t>
+  </si>
+  <si>
+    <t>Ahorrar</t>
+  </si>
+  <si>
+    <t>Risparmio</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Aire</t>
+  </si>
+  <si>
+    <t>Aria condizionata</t>
+  </si>
+  <si>
+    <t>Aire acondicionado</t>
+  </si>
+  <si>
+    <t>Estraneo</t>
+  </si>
+  <si>
+    <t>Ajeno</t>
+  </si>
+  <si>
+    <t>Estranea</t>
+  </si>
+  <si>
+    <t>Ajena</t>
+  </si>
+  <si>
+    <t>Fuori dal nostro controllo</t>
+  </si>
+  <si>
+    <t>Ajeno a nuestra voluntad</t>
+  </si>
+  <si>
+    <t>Aglio</t>
+  </si>
+  <si>
+    <t>Ajo</t>
+  </si>
+  <si>
+    <t>Ridimensionare lo staff di un'azienda</t>
+  </si>
+  <si>
+    <t>Ajustar plantillas</t>
+  </si>
+  <si>
+    <t>Aggiustamento; ridefinizione dell'organico</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>A fianco di; Accanto a</t>
+  </si>
+  <si>
+    <t>Al lado de</t>
+  </si>
+  <si>
+    <t>Alla fine</t>
+  </si>
+  <si>
+    <t>Al final</t>
+  </si>
+  <si>
+    <t>Allo stesso tempo</t>
+  </si>
+  <si>
+    <t>Al mismo tiempo</t>
+  </si>
+  <si>
+    <t>All'ingrosso</t>
+  </si>
+  <si>
+    <t>Al por mayor</t>
+  </si>
+  <si>
+    <t>Al dettaglio</t>
+  </si>
+  <si>
+    <t>Al por menor</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Sindaco</t>
+  </si>
+  <si>
+    <t>Alcade</t>
+  </si>
+  <si>
+    <t>Comune; Municipio</t>
+  </si>
+  <si>
+    <t>Alcadía</t>
+  </si>
+  <si>
+    <t>Raggiungere</t>
+  </si>
+  <si>
+    <t>Alcanzar</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Alcol</t>
+  </si>
+  <si>
+    <t>Allegro</t>
+  </si>
+  <si>
+    <t>Alegre</t>
+  </si>
+  <si>
+    <t>Allegra</t>
+  </si>
+  <si>
+    <t>Allegria</t>
+  </si>
+  <si>
+    <t>Alegría</t>
+  </si>
+  <si>
+    <t>Qualcosa</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>Alimento</t>
+  </si>
+  <si>
+    <t>Alleviare; Dare sollievo</t>
+  </si>
+  <si>
+    <t>Aliviar</t>
+  </si>
+  <si>
+    <t>Anima</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
+    <t>Magazzino</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Pranzare</t>
+  </si>
+  <si>
+    <t>Almorzar</t>
+  </si>
+  <si>
+    <t>Alloggiare</t>
+  </si>
+  <si>
+    <t>Alojarse</t>
+  </si>
+  <si>
+    <t>Affitto</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>Intorno</t>
+  </si>
+  <si>
+    <t>Alrededor</t>
+  </si>
+  <si>
+    <t>Intorno a</t>
+  </si>
+  <si>
+    <t>Alrededor de</t>
+  </si>
+  <si>
+    <t>Dintorni</t>
+  </si>
+  <si>
+    <t>Alrededores</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Alunno; Allievo</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>Alunna; Allieva</t>
+  </si>
+  <si>
+    <t>Alumna</t>
+  </si>
+  <si>
+    <t>Alzare</t>
+  </si>
+  <si>
+    <t>Alzar</t>
+  </si>
+  <si>
+    <t>Là</t>
+  </si>
+  <si>
+    <t>Allá</t>
+  </si>
+  <si>
+    <t>Allí</t>
+  </si>
+  <si>
+    <t>Lì vicino</t>
+  </si>
+  <si>
+    <t>Allí cerca</t>
+  </si>
+  <si>
+    <t>Amable</t>
+  </si>
+  <si>
+    <t>Giallo</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>Gialla</t>
+  </si>
+  <si>
+    <t>Amarilla</t>
+  </si>
+  <si>
+    <t>Minaccia</t>
+  </si>
+  <si>
+    <t>Amenaza</t>
+  </si>
+  <si>
+    <t>Ambiente di lavoro</t>
+  </si>
+  <si>
+    <t>Ambiente de trabajo</t>
+  </si>
+  <si>
+    <t>Entrambi</t>
+  </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>Entrambe</t>
+  </si>
+  <si>
+    <t>Ambas</t>
+  </si>
+  <si>
+    <t>Amico</t>
+  </si>
+  <si>
+    <t>Amigo</t>
+  </si>
+  <si>
+    <t>Amica</t>
+  </si>
+  <si>
+    <t>Amiga</t>
+  </si>
+  <si>
+    <t>Amico del cuore</t>
+  </si>
+  <si>
+    <t>Amigo del alma</t>
+  </si>
+  <si>
+    <t>Amica del cuore</t>
+  </si>
+  <si>
+    <t>Amiga del alma</t>
+  </si>
+  <si>
+    <t>Amicizia</t>
+  </si>
+  <si>
+    <t>Amistad</t>
+  </si>
+  <si>
+    <t>Amore</t>
+  </si>
+  <si>
+    <t>Amor</t>
+  </si>
+  <si>
+    <t>Ammortamento</t>
+  </si>
+  <si>
+    <t>Amortización</t>
+  </si>
+  <si>
+    <t>Amplificare</t>
+  </si>
+  <si>
+    <t>Amplificar</t>
+  </si>
+  <si>
+    <t>Ampio</t>
+  </si>
+  <si>
+    <t>Amplio</t>
+  </si>
+  <si>
+    <t>Ampia</t>
+  </si>
+  <si>
+    <t>Amplia</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Analisi</t>
+  </si>
+  <si>
+    <t>Analizzare</t>
+  </si>
+  <si>
+    <t>Analizar</t>
+  </si>
+  <si>
+    <t>Anziano</t>
+  </si>
+  <si>
+    <t>Anciano</t>
+  </si>
+  <si>
+    <t>Anziana</t>
+  </si>
+  <si>
+    <t>Anciana</t>
+  </si>
+  <si>
+    <t>Percorso</t>
+  </si>
+  <si>
+    <t>Andadura</t>
+  </si>
+  <si>
+    <t>Camminare</t>
+  </si>
+  <si>
+    <t>Andar</t>
+  </si>
+  <si>
+    <t>Allegato</t>
+  </si>
+  <si>
+    <t>Anexo</t>
+  </si>
+  <si>
+    <t>Animato; Brillante</t>
+  </si>
+  <si>
+    <t>Animado</t>
+  </si>
+  <si>
+    <t>Animata; Brillante</t>
+  </si>
+  <si>
+    <t>Animada</t>
+  </si>
+  <si>
+    <t>Ieri notte</t>
+  </si>
+  <si>
+    <t>Anoche</t>
+  </si>
+  <si>
+    <t>Ansia</t>
+  </si>
+  <si>
+    <t>Ansiedad</t>
+  </si>
+  <si>
+    <t>Antenato</t>
+  </si>
+  <si>
+    <t>Antepasado</t>
+  </si>
+  <si>
+    <t>Antenata</t>
+  </si>
+  <si>
+    <t>Antepasada</t>
+  </si>
+  <si>
+    <t>Prima</t>
+  </si>
+  <si>
+    <t>Antes</t>
+  </si>
+  <si>
+    <t>Prima di</t>
+  </si>
+  <si>
+    <t>Antes de</t>
+  </si>
+  <si>
+    <t>Anticipato</t>
+  </si>
+  <si>
+    <t>Anticipado</t>
+  </si>
+  <si>
+    <t>Anticipata</t>
+  </si>
+  <si>
+    <t>Anticipada</t>
+  </si>
+  <si>
+    <t>No-global</t>
+  </si>
+  <si>
+    <t>Antiglobalización</t>
+  </si>
+  <si>
+    <t>Vecchio; Antico</t>
+  </si>
+  <si>
+    <t>Antiguo</t>
+  </si>
+  <si>
+    <t>Vecchia; Antica</t>
+  </si>
+  <si>
+    <t>Antigua</t>
+  </si>
+  <si>
+    <t>Annuale</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Annullato</t>
+  </si>
+  <si>
+    <t>Anulado</t>
+  </si>
+  <si>
+    <t>Annullata</t>
+  </si>
+  <si>
+    <t>Anulada</t>
+  </si>
+  <si>
+    <t>Annullare; Sospendere</t>
+  </si>
+  <si>
+    <t>Anular</t>
+  </si>
+  <si>
+    <t>Annunciare</t>
+  </si>
+  <si>
+    <t>Anunciar</t>
+  </si>
+  <si>
+    <t>Anno</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Spegnere</t>
+  </si>
+  <si>
+    <t>Apagar</t>
+  </si>
+  <si>
+    <t>Apparecchio</t>
+  </si>
+  <si>
+    <t>Aparato</t>
+  </si>
+  <si>
+    <t>Comparire</t>
+  </si>
+  <si>
+    <t>Aparecer</t>
+  </si>
+  <si>
+    <t>Rappresentare</t>
+  </si>
+  <si>
+    <t>Aparentar</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Appena</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>Aperitivo</t>
+  </si>
+  <si>
+    <t>Hostess di congressi</t>
+  </si>
+  <si>
+    <t>Azafata de congresos</t>
+  </si>
+  <si>
+    <t>Hostess di volo</t>
+  </si>
+  <si>
+    <t>Azafato</t>
+  </si>
+  <si>
+    <t>Azúcar</t>
+  </si>
+  <si>
+    <t>Zucchero</t>
+  </si>
+  <si>
+    <t>Azzurro; Blu</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Studi di Scuola Superiore</t>
+  </si>
+  <si>
+    <t>Bachiller</t>
+  </si>
+  <si>
+    <t>Ballo</t>
+  </si>
+  <si>
+    <t>Baile</t>
+  </si>
+  <si>
+    <t>Scendere; Diminuire</t>
+  </si>
+  <si>
+    <t>Bajar</t>
+  </si>
+  <si>
+    <t>Basso</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Bassa</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Sotto controllo</t>
+  </si>
+  <si>
+    <t>Bajo control</t>
+  </si>
+  <si>
+    <t>Sotto cauzione</t>
+  </si>
+  <si>
+    <t>Bajo fianza</t>
+  </si>
+  <si>
+    <t>Sotto terra</t>
+  </si>
+  <si>
+    <t>Bajo tierra</t>
+  </si>
+  <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Balón</t>
+  </si>
+  <si>
+    <t>Bambù</t>
+  </si>
+  <si>
+    <t>Bambú</t>
+  </si>
+  <si>
+    <t>Banca</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Fare il bagno</t>
+  </si>
+  <si>
+    <t>Bañar</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Barba</t>
+  </si>
+  <si>
+    <t>Barco</t>
+  </si>
+  <si>
+    <t>Barca</t>
+  </si>
+  <si>
+    <t>Bancone del bar; Sbarra; Unità di misura del burro; Pane</t>
+  </si>
+  <si>
+    <t>Barra</t>
+  </si>
+  <si>
+    <t>Quartiere</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Base regolatrice</t>
+  </si>
+  <si>
+    <t>Base reguladora</t>
+  </si>
+  <si>
+    <t>Abbastanza; Parecchio</t>
+  </si>
+  <si>
+    <t>Bastante</t>
+  </si>
+  <si>
+    <t>Battaglia</t>
+  </si>
+  <si>
+    <t>Batalla</t>
+  </si>
+  <si>
+    <t>Battere</t>
+  </si>
+  <si>
+    <t>Batir</t>
+  </si>
+  <si>
+    <t>Baule</t>
+  </si>
+  <si>
+    <t>Baúl</t>
+  </si>
+  <si>
+    <t>Bere</t>
+  </si>
+  <si>
+    <t>Beber</t>
+  </si>
+  <si>
+    <t>Borsa di studio</t>
+  </si>
+  <si>
+    <t>Beca</t>
+  </si>
+  <si>
+    <t>Assegno di ricerca</t>
+  </si>
+  <si>
+    <t>Beca de investigación</t>
+  </si>
+  <si>
+    <t>Borsista; Stagista</t>
+  </si>
+  <si>
+    <t>Becario</t>
+  </si>
+  <si>
+    <t>Beneficio; Vantaggio</t>
+  </si>
+  <si>
+    <t>Beneficio</t>
+  </si>
+  <si>
+    <t>Benefici sociali</t>
+  </si>
+  <si>
+    <t>Beneficios sociales</t>
+  </si>
+  <si>
+    <t>Mountain bike</t>
+  </si>
+  <si>
+    <t>Bicicleta de montaña</t>
+  </si>
+  <si>
+    <t>Bene</t>
+  </si>
+  <si>
+    <t>Bien</t>
+  </si>
+  <si>
+    <t>Benvenuto</t>
+  </si>
+  <si>
+    <t>Bienvenido</t>
+  </si>
+  <si>
+    <t>Benvenuta</t>
+  </si>
+  <si>
+    <t>Bienvenida</t>
+  </si>
+  <si>
+    <t>Biglietto; Banconota</t>
+  </si>
+  <si>
+    <t>Billete</t>
+  </si>
+  <si>
+    <t>Bianco</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Bocca</t>
+  </si>
+  <si>
+    <t>Boca</t>
+  </si>
+  <si>
+    <t>Matrimonio</t>
+  </si>
+  <si>
+    <t>Boda</t>
+  </si>
+  <si>
+    <t>Bolígrafo</t>
+  </si>
+  <si>
+    <t>Penna</t>
+  </si>
+  <si>
+    <t>Borsa</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>Sacchetto di plastica</t>
+  </si>
+  <si>
+    <t>Bolsa de plástico</t>
+  </si>
+  <si>
+    <t>Borsa; Borsone</t>
+  </si>
+  <si>
+    <t>Bolso</t>
+  </si>
+  <si>
+    <t>Bombardare</t>
+  </si>
+  <si>
+    <t>Bombardear</t>
+  </si>
+  <si>
+    <t>Bontà</t>
+  </si>
+  <si>
+    <t>Bondad</t>
+  </si>
+  <si>
+    <t>Bonifica</t>
+  </si>
+  <si>
+    <t>Bonificación</t>
+  </si>
+  <si>
+    <t>Cancellare</t>
+  </si>
+  <si>
+    <t>Borrar</t>
+  </si>
+  <si>
+    <t>Bottiglia</t>
+  </si>
+  <si>
+    <t>Botella</t>
+  </si>
+  <si>
+    <t>Scherzo</t>
+  </si>
+  <si>
+    <t>Broma</t>
+  </si>
+  <si>
+    <t>Spiritoso</t>
+  </si>
+  <si>
+    <t>Bromista</t>
+  </si>
+  <si>
+    <t>Spiritosa</t>
+  </si>
+  <si>
+    <t>Buona notte</t>
+  </si>
+  <si>
+    <t>Buenas noches</t>
+  </si>
+  <si>
+    <t>Buenas tardes</t>
+  </si>
+  <si>
+    <t>Buon pomeriggio; Buona sera</t>
+  </si>
+  <si>
+    <t>Buono; Bravo; Di qualità</t>
+  </si>
+  <si>
+    <t>Buona; Brava; Di qualità</t>
+  </si>
+  <si>
+    <t>Bueno</t>
+  </si>
+  <si>
+    <t>Beuna</t>
+  </si>
+  <si>
+    <t>Beh</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Buenos días</t>
+  </si>
+  <si>
+    <t>Cercare</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Ricerca</t>
+  </si>
+  <si>
+    <t>Búsqueda</t>
+  </si>
+  <si>
+    <t>Venire voglia</t>
+  </si>
+  <si>
+    <t>Apetecer</t>
+  </si>
+  <si>
+    <t>Posticipare</t>
+  </si>
+  <si>
+    <t>Aplazar</t>
+  </si>
+  <si>
+    <t>Aplicado</t>
+  </si>
+  <si>
+    <t>Diligente</t>
+  </si>
+  <si>
+    <t>Contributo</t>
+  </si>
+  <si>
+    <t>Aportación</t>
+  </si>
+  <si>
+    <t>Contribuire</t>
+  </si>
+  <si>
+    <t>Aportar</t>
+  </si>
+  <si>
+    <t>Scommettere; Puntare</t>
+  </si>
+  <si>
+    <t>Apostar</t>
+  </si>
+  <si>
+    <t>Appoggiare</t>
+  </si>
+  <si>
+    <t>Apoyar</t>
+  </si>
+  <si>
+    <t>Appoggiato</t>
+  </si>
+  <si>
+    <t>Apoyado</t>
+  </si>
+  <si>
+    <t>Appoggiata</t>
+  </si>
+  <si>
+    <t>Apoyada</t>
+  </si>
+  <si>
+    <t>Apprezzato</t>
+  </si>
+  <si>
+    <t>Apreciado</t>
+  </si>
+  <si>
+    <t>Apprezzata</t>
+  </si>
+  <si>
+    <t>Apreciada</t>
+  </si>
+  <si>
+    <t>Apprezzare</t>
+  </si>
+  <si>
+    <t>Apreciar</t>
+  </si>
+  <si>
+    <t>Aprendizaje</t>
+  </si>
+  <si>
+    <t>Apprendistato; Apprendimento</t>
+  </si>
+  <si>
+    <t>Stringere; Schiacciare; Farsi sentire</t>
+  </si>
+  <si>
+    <t>Apretar</t>
+  </si>
+  <si>
+    <t>Stretta di mani</t>
+  </si>
+  <si>
+    <t>Apretón de manos</t>
+  </si>
+  <si>
+    <t>Essere promosso; Approvare</t>
+  </si>
+  <si>
+    <t>Aprobar</t>
+  </si>
+  <si>
+    <t>Approfittare</t>
+  </si>
+  <si>
+    <t>Aprovechar</t>
+  </si>
+  <si>
+    <t>Capacità</t>
+  </si>
+  <si>
+    <t>Aptitudes</t>
+  </si>
+  <si>
+    <t>Aitante</t>
+  </si>
+  <si>
+    <t>Apuesto</t>
+  </si>
+  <si>
+    <t>Appunto</t>
+  </si>
+  <si>
+    <t>Apunte</t>
+  </si>
+  <si>
+    <t>Guaio; Problema</t>
+  </si>
+  <si>
+    <t>Apuro</t>
+  </si>
+  <si>
+    <t>Aquí</t>
+  </si>
+  <si>
+    <t>Albero</t>
+  </si>
+  <si>
+    <t>Árbol</t>
+  </si>
+  <si>
+    <t>Schedario</t>
+  </si>
+  <si>
+    <t>Archivador</t>
+  </si>
+  <si>
+    <t>Aggiustare</t>
+  </si>
+  <si>
+    <t>Arreglar</t>
+  </si>
+  <si>
+    <t>Leasing finanziario</t>
+  </si>
+  <si>
+    <t>Arrendamiento financiero</t>
+  </si>
+  <si>
+    <t>Pentirsi</t>
+  </si>
+  <si>
+    <t>Arrepentirse</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Arriba</t>
+  </si>
+  <si>
+    <t>Accostarsi; Avvicinarsi</t>
+  </si>
+  <si>
+    <t>Arrimarse</t>
+  </si>
+  <si>
+    <t>Stropicciato</t>
+  </si>
+  <si>
+    <t>Arrugado</t>
+  </si>
+  <si>
+    <t>Stropicciata</t>
+  </si>
+  <si>
+    <t>Arrugada</t>
+  </si>
+  <si>
+    <t>Rovinato; Andato in rovina</t>
+  </si>
+  <si>
+    <t>Arruinado</t>
+  </si>
+  <si>
+    <t>Rovinata; Andata in rovina</t>
+  </si>
+  <si>
+    <t>Arruinada</t>
+  </si>
+  <si>
+    <t>Rovinarsi</t>
+  </si>
+  <si>
+    <t>Arruinarse</t>
+  </si>
+  <si>
+    <t>Artigianato</t>
+  </si>
+  <si>
+    <t>Artesanía</t>
+  </si>
+  <si>
+    <t>Articolo</t>
+  </si>
+  <si>
+    <t>Artículo</t>
+  </si>
+  <si>
+    <t>Stipendiato</t>
+  </si>
+  <si>
+    <t>Asalariado</t>
+  </si>
+  <si>
+    <t>Stipendiata</t>
+  </si>
+  <si>
+    <t>Asalariada</t>
+  </si>
+  <si>
+    <t>Salire</t>
+  </si>
+  <si>
+    <t>Ascender</t>
+  </si>
+  <si>
+    <t>Promozione; Aumento di categoria; Salita</t>
+  </si>
+  <si>
+    <t>Ascenso</t>
+  </si>
+  <si>
+    <t>Ascensore</t>
+  </si>
+  <si>
+    <t>Ascensor</t>
+  </si>
+  <si>
+    <t>Assicurare</t>
+  </si>
+  <si>
+    <t>Asegurar</t>
+  </si>
+  <si>
+    <t>Assenso</t>
+  </si>
+  <si>
+    <t>Asentimiento</t>
+  </si>
+  <si>
+    <t>Assassino</t>
+  </si>
+  <si>
+    <t>Asesino</t>
+  </si>
+  <si>
+    <t>Assassina</t>
+  </si>
+  <si>
+    <t>Asesina</t>
+  </si>
+  <si>
+    <t>Commercialista</t>
+  </si>
+  <si>
+    <t>Asesor fiscal</t>
+  </si>
+  <si>
+    <t>Consulenza</t>
+  </si>
+  <si>
+    <t>Asesoramiento</t>
+  </si>
+  <si>
+    <t>Così; In questo modo</t>
+  </si>
+  <si>
+    <t>Así</t>
+  </si>
+  <si>
+    <t>Così come</t>
+  </si>
+  <si>
+    <t>Así como</t>
+  </si>
+  <si>
+    <t>Pertanto</t>
+  </si>
+  <si>
+    <t>Así que</t>
+  </si>
+  <si>
+    <t>Assegnazione</t>
+  </si>
+  <si>
+    <t>Asignación</t>
+  </si>
+  <si>
+    <t>Materia</t>
+  </si>
+  <si>
+    <t>Asignatura</t>
+  </si>
+  <si>
+    <t>Asimismo</t>
+  </si>
+  <si>
+    <t>Assistere</t>
+  </si>
+  <si>
+    <t>Asistir</t>
+  </si>
+  <si>
+    <t>Aspirare</t>
+  </si>
+  <si>
+    <t>Aspirar</t>
+  </si>
+  <si>
+    <t>Astrologia</t>
+  </si>
+  <si>
+    <t>Astrología</t>
+  </si>
+  <si>
+    <t>Faccenda; Vicenda; Affare</t>
+  </si>
+  <si>
+    <t>Asunto</t>
+  </si>
+  <si>
+    <t>Spaventare</t>
+  </si>
+  <si>
+    <t>Asustar</t>
+  </si>
+  <si>
+    <t>Spaventarsi</t>
+  </si>
+  <si>
+    <t>Asustarse</t>
+  </si>
+  <si>
+    <t>Legato; Allacciato</t>
+  </si>
+  <si>
+    <t>Atado</t>
+  </si>
+  <si>
+    <t>Legata; Allacciata</t>
+  </si>
+  <si>
+    <t>Atada</t>
+  </si>
+  <si>
+    <t>Legare</t>
+  </si>
+  <si>
+    <t>Atar</t>
+  </si>
+  <si>
+    <t>Assistenza specialistica</t>
+  </si>
+  <si>
+    <t>Atención especializada</t>
+  </si>
+  <si>
+    <t>Assistenza primaria</t>
+  </si>
+  <si>
+    <t>Atención primaria</t>
+  </si>
+  <si>
+    <t>Attentamente</t>
+  </si>
+  <si>
+    <t>Atentamente</t>
+  </si>
+  <si>
+    <t>Attento</t>
+  </si>
+  <si>
+    <t>Atento</t>
+  </si>
+  <si>
+    <t>Attenta</t>
+  </si>
+  <si>
+    <t>Atenta</t>
+  </si>
+  <si>
+    <t>Intimorire</t>
+  </si>
+  <si>
+    <t>Aterrar</t>
+  </si>
+  <si>
+    <t>Attico</t>
+  </si>
+  <si>
+    <t>Ático</t>
+  </si>
+  <si>
+    <t>Attraente</t>
+  </si>
+  <si>
+    <t>Atractivo</t>
+  </si>
+  <si>
+    <t>Attrarre</t>
+  </si>
+  <si>
+    <t>Atraer</t>
+  </si>
+  <si>
+    <t>Tribunale</t>
+  </si>
+  <si>
+    <t>Audencia provincial</t>
+  </si>
+  <si>
+    <t>Aula</t>
+  </si>
+  <si>
+    <t>Aumento</t>
+  </si>
+  <si>
+    <t>Aumento di stipendio</t>
+  </si>
+  <si>
+    <t>Aumento de sueldo</t>
+  </si>
+  <si>
+    <t>Ancora</t>
+  </si>
+  <si>
+    <t>Aún</t>
+  </si>
+  <si>
+    <t>Persino</t>
+  </si>
+  <si>
+    <t>Aun</t>
+  </si>
+  <si>
+    <t>Autobus; Pullman</t>
+  </si>
+  <si>
+    <t>Autobús</t>
+  </si>
+  <si>
+    <t>Autore</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Autrice</t>
+  </si>
+  <si>
+    <t>Autora</t>
+  </si>
+  <si>
+    <t>Autoritario</t>
+  </si>
+  <si>
+    <t>Autoritaria</t>
+  </si>
+  <si>
+    <t>Fare vergognare qualcuno</t>
+  </si>
+  <si>
+    <t>Avergonzar</t>
+  </si>
+  <si>
+    <t>Vergognarsi</t>
+  </si>
+  <si>
+    <t>Avergonzarse</t>
+  </si>
+  <si>
+    <t>Guasto; Avaria</t>
+  </si>
+  <si>
+    <t>Avería</t>
+  </si>
+  <si>
+    <t>Aereo</t>
+  </si>
+  <si>
+    <t>Avión</t>
+  </si>
+  <si>
+    <t>Ieri</t>
+  </si>
+  <si>
+    <t>Ayer</t>
+  </si>
+  <si>
+    <t>Aiuto</t>
+  </si>
+  <si>
+    <t>Ayuda</t>
+  </si>
+  <si>
+    <t>Aiutare</t>
+  </si>
+  <si>
+    <t>Ayudar</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Avventura</t>
+  </si>
+  <si>
+    <t>Aventura</t>
+  </si>
+  <si>
+    <t>Velina</t>
+  </si>
+  <si>
+    <t>Azafata de televisión</t>
   </si>
 </sst>
 </file>
@@ -696,8 +2181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}" name="Table1" displayName="Table1" ref="A1:B98" totalsRowShown="0">
-  <autoFilter ref="A1:B98" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}" name="Table1" displayName="Table1" ref="A1:B356" totalsRowShown="0">
+  <autoFilter ref="A1:B356" xr:uid="{E65DD74A-8D12-4D08-861A-2048F98A61FF}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{6A47DAB4-1566-467C-B639-7E1EF1F26C99}" name="Italian"/>
     <tableColumn id="3" xr3:uid="{5FAE1A2D-84EA-4A6B-A4AE-4E5878A91B15}" name="Spanish"/>
@@ -1003,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431EFD82-E282-4144-8023-55DF8DD0622C}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="A356" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,6 +3284,2070 @@
         <v>194</v>
       </c>
     </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>288</v>
+      </c>
+      <c r="B148" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>290</v>
+      </c>
+      <c r="B149" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>326</v>
+      </c>
+      <c r="B168" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>346</v>
+      </c>
+      <c r="B178" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>350</v>
+      </c>
+      <c r="B180" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>352</v>
+      </c>
+      <c r="B181" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>354</v>
+      </c>
+      <c r="B182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>356</v>
+      </c>
+      <c r="B183" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>360</v>
+      </c>
+      <c r="B185" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>362</v>
+      </c>
+      <c r="B187" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>368</v>
+      </c>
+      <c r="B190" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>370</v>
+      </c>
+      <c r="B191" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>374</v>
+      </c>
+      <c r="B193" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>376</v>
+      </c>
+      <c r="B194" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>378</v>
+      </c>
+      <c r="B195" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>380</v>
+      </c>
+      <c r="B196" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>382</v>
+      </c>
+      <c r="B197" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>384</v>
+      </c>
+      <c r="B198" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>386</v>
+      </c>
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>388</v>
+      </c>
+      <c r="B200" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>390</v>
+      </c>
+      <c r="B201" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>392</v>
+      </c>
+      <c r="B202" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>512</v>
+      </c>
+      <c r="B203" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>514</v>
+      </c>
+      <c r="B204" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>517</v>
+      </c>
+      <c r="B205" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>518</v>
+      </c>
+      <c r="B206" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>520</v>
+      </c>
+      <c r="B207" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>522</v>
+      </c>
+      <c r="B208" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>524</v>
+      </c>
+      <c r="B209" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>526</v>
+      </c>
+      <c r="B210" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>528</v>
+      </c>
+      <c r="B211" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>530</v>
+      </c>
+      <c r="B212" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>532</v>
+      </c>
+      <c r="B213" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>534</v>
+      </c>
+      <c r="B214" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>537</v>
+      </c>
+      <c r="B215" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>538</v>
+      </c>
+      <c r="B216" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>540</v>
+      </c>
+      <c r="B217" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>542</v>
+      </c>
+      <c r="B218" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>544</v>
+      </c>
+      <c r="B219" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>546</v>
+      </c>
+      <c r="B220" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>548</v>
+      </c>
+      <c r="B221" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>550</v>
+      </c>
+      <c r="B222" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>552</v>
+      </c>
+      <c r="B223" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>68</v>
+      </c>
+      <c r="B224" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>555</v>
+      </c>
+      <c r="B225" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>557</v>
+      </c>
+      <c r="B226" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>559</v>
+      </c>
+      <c r="B227" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>561</v>
+      </c>
+      <c r="B228" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>563</v>
+      </c>
+      <c r="B229" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>565</v>
+      </c>
+      <c r="B230" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>567</v>
+      </c>
+      <c r="B231" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>569</v>
+      </c>
+      <c r="B232" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>571</v>
+      </c>
+      <c r="B233" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>573</v>
+      </c>
+      <c r="B234" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>575</v>
+      </c>
+      <c r="B235" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>577</v>
+      </c>
+      <c r="B236" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>579</v>
+      </c>
+      <c r="B237" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>581</v>
+      </c>
+      <c r="B238" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>583</v>
+      </c>
+      <c r="B239" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>585</v>
+      </c>
+      <c r="B240" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>587</v>
+      </c>
+      <c r="B241" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>589</v>
+      </c>
+      <c r="B242" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>591</v>
+      </c>
+      <c r="B243" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>593</v>
+      </c>
+      <c r="B244" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>595</v>
+      </c>
+      <c r="B245" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>597</v>
+      </c>
+      <c r="B246" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>599</v>
+      </c>
+      <c r="B247" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>601</v>
+      </c>
+      <c r="B248" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>603</v>
+      </c>
+      <c r="B249" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>605</v>
+      </c>
+      <c r="B250" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>607</v>
+      </c>
+      <c r="B251" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>609</v>
+      </c>
+      <c r="B252" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>611</v>
+      </c>
+      <c r="B253" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>613</v>
+      </c>
+      <c r="B254" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>134</v>
+      </c>
+      <c r="B255" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>616</v>
+      </c>
+      <c r="B256" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>618</v>
+      </c>
+      <c r="B257" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>620</v>
+      </c>
+      <c r="B258" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>622</v>
+      </c>
+      <c r="B259" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>624</v>
+      </c>
+      <c r="B260" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>626</v>
+      </c>
+      <c r="B261" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>628</v>
+      </c>
+      <c r="B262" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>630</v>
+      </c>
+      <c r="B263" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>632</v>
+      </c>
+      <c r="B264" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>634</v>
+      </c>
+      <c r="B265" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>636</v>
+      </c>
+      <c r="B266" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>638</v>
+      </c>
+      <c r="B267" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>640</v>
+      </c>
+      <c r="B268" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>642</v>
+      </c>
+      <c r="B269" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>644</v>
+      </c>
+      <c r="B270" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>646</v>
+      </c>
+      <c r="B271" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>648</v>
+      </c>
+      <c r="B272" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>650</v>
+      </c>
+      <c r="B273" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>652</v>
+      </c>
+      <c r="B274" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>654</v>
+      </c>
+      <c r="B275" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>655</v>
+      </c>
+      <c r="B276" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>656</v>
+      </c>
+      <c r="B277" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>658</v>
+      </c>
+      <c r="B278" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>660</v>
+      </c>
+      <c r="B279" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>662</v>
+      </c>
+      <c r="B280" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>664</v>
+      </c>
+      <c r="B281" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>666</v>
+      </c>
+      <c r="B282" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>668</v>
+      </c>
+      <c r="B283" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>669</v>
+      </c>
+      <c r="B284" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>670</v>
+      </c>
+      <c r="B285" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>672</v>
+      </c>
+      <c r="B286" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>674</v>
+      </c>
+      <c r="B287" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>676</v>
+      </c>
+      <c r="B288" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>678</v>
+      </c>
+      <c r="B289" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>680</v>
+      </c>
+      <c r="B290" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>682</v>
+      </c>
+      <c r="B291" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>684</v>
+      </c>
+      <c r="B292" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>686</v>
+      </c>
+      <c r="B293" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>688</v>
+      </c>
+      <c r="B294" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>393</v>
+      </c>
+      <c r="B295" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>395</v>
+      </c>
+      <c r="B296" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>398</v>
+      </c>
+      <c r="B297" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>399</v>
+      </c>
+      <c r="B298" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>401</v>
+      </c>
+      <c r="B299" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>403</v>
+      </c>
+      <c r="B300" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>405</v>
+      </c>
+      <c r="B301" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>407</v>
+      </c>
+      <c r="B302" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>409</v>
+      </c>
+      <c r="B303" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>411</v>
+      </c>
+      <c r="B304" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>413</v>
+      </c>
+      <c r="B305" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>415</v>
+      </c>
+      <c r="B306" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>417</v>
+      </c>
+      <c r="B307" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>419</v>
+      </c>
+      <c r="B308" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>421</v>
+      </c>
+      <c r="B309" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>423</v>
+      </c>
+      <c r="B310" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>425</v>
+      </c>
+      <c r="B311" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>426</v>
+      </c>
+      <c r="B312" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>428</v>
+      </c>
+      <c r="B313" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>429</v>
+      </c>
+      <c r="B314" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>431</v>
+      </c>
+      <c r="B315" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>433</v>
+      </c>
+      <c r="B316" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>434</v>
+      </c>
+      <c r="B317" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>436</v>
+      </c>
+      <c r="B318" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>438</v>
+      </c>
+      <c r="B319" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>440</v>
+      </c>
+      <c r="B320" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>442</v>
+      </c>
+      <c r="B321" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>444</v>
+      </c>
+      <c r="B322" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>446</v>
+      </c>
+      <c r="B323" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>448</v>
+      </c>
+      <c r="B324" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>450</v>
+      </c>
+      <c r="B325" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>452</v>
+      </c>
+      <c r="B326" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>454</v>
+      </c>
+      <c r="B327" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>456</v>
+      </c>
+      <c r="B328" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>458</v>
+      </c>
+      <c r="B329" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>460</v>
+      </c>
+      <c r="B330" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>462</v>
+      </c>
+      <c r="B331" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>464</v>
+      </c>
+      <c r="B332" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>466</v>
+      </c>
+      <c r="B333" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>469</v>
+      </c>
+      <c r="B334" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>470</v>
+      </c>
+      <c r="B335" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>472</v>
+      </c>
+      <c r="B336" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>475</v>
+      </c>
+      <c r="B337" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>476</v>
+      </c>
+      <c r="B338" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>478</v>
+      </c>
+      <c r="B339" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>480</v>
+      </c>
+      <c r="B340" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>482</v>
+      </c>
+      <c r="B341" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>484</v>
+      </c>
+      <c r="B342" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>486</v>
+      </c>
+      <c r="B343" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>488</v>
+      </c>
+      <c r="B344" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>490</v>
+      </c>
+      <c r="B345" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>492</v>
+      </c>
+      <c r="B346" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>494</v>
+      </c>
+      <c r="B347" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>496</v>
+      </c>
+      <c r="B348" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>497</v>
+      </c>
+      <c r="B349" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>500</v>
+      </c>
+      <c r="B350" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>501</v>
+      </c>
+      <c r="B351" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>502</v>
+      </c>
+      <c r="B352" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>505</v>
+      </c>
+      <c r="B353" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>506</v>
+      </c>
+      <c r="B354" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>508</v>
+      </c>
+      <c r="B355" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>510</v>
+      </c>
+      <c r="B356" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1238">
   <si>
     <t>Italian</t>
   </si>
@@ -22,2068 +22,3712 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>A breve scadenza</t>
-  </si>
-  <si>
-    <t>A corto plazo</t>
-  </si>
-  <si>
-    <t>Alla fine di</t>
-  </si>
-  <si>
-    <t>A finales de</t>
-  </si>
-  <si>
-    <t>A fiamma bassa</t>
-  </si>
-  <si>
-    <t>A fuego lento</t>
-  </si>
-  <si>
-    <t>A destra di</t>
-  </si>
-  <si>
-    <t>A la derecha de</t>
-  </si>
-  <si>
-    <t>A sinistra di</t>
-  </si>
-  <si>
-    <t>A la iziquierda de</t>
-  </si>
-  <si>
-    <t>Alla lunga</t>
-  </si>
-  <si>
-    <t>A la larga</t>
-  </si>
-  <si>
-    <t>A lunga scadenza</t>
-  </si>
-  <si>
-    <t>A largo plazo</t>
-  </si>
-  <si>
-    <t>Forse</t>
-  </si>
-  <si>
-    <t>A lo mejor</t>
-  </si>
-  <si>
-    <t>Spesso</t>
-  </si>
-  <si>
-    <t>A menudo</t>
-  </si>
-  <si>
-    <t>Far finta di non sentire</t>
-  </si>
-  <si>
-    <t>A palabras necias, oídos sordos</t>
-  </si>
-  <si>
-    <t>In tempo</t>
-  </si>
-  <si>
-    <t>A tiempo</t>
-  </si>
-  <si>
-    <t>Dimmi un po'</t>
-  </si>
-  <si>
-    <t>A todo esto</t>
-  </si>
-  <si>
-    <t>Sperare che</t>
-  </si>
-  <si>
-    <t>A ver si</t>
-  </si>
-  <si>
-    <t>Per posta di ritorno</t>
-  </si>
-  <si>
-    <t>A vuelta de correo</t>
-  </si>
-  <si>
-    <t>Giù; Abbasso</t>
-  </si>
-  <si>
-    <t>Abajo</t>
-  </si>
-  <si>
-    <t>Abbracciare</t>
-  </si>
-  <si>
-    <t>Abarcar</t>
-  </si>
-  <si>
-    <t>Aperto</t>
-  </si>
-  <si>
-    <t>Abierto</t>
-  </si>
-  <si>
-    <t>Aperta</t>
-  </si>
-  <si>
-    <t>Abierta</t>
-  </si>
-  <si>
-    <t>Avvocato</t>
-  </si>
-  <si>
-    <t>Abogado</t>
-  </si>
-  <si>
-    <t>Avvocatessa</t>
-  </si>
-  <si>
-    <t>Abogada</t>
-  </si>
-  <si>
-    <t>Avvocato del lavoro</t>
-  </si>
-  <si>
-    <t>Abogado laboralista</t>
-  </si>
-  <si>
-    <t>Avvocatessa del lavoro</t>
-  </si>
-  <si>
-    <t>Abogada laboralista</t>
-  </si>
-  <si>
-    <t>Pagare le tasse universitarie</t>
-  </si>
-  <si>
-    <t>Abonar las tasas</t>
-  </si>
-  <si>
-    <t>Discusso</t>
-  </si>
-  <si>
-    <t>Abordado</t>
-  </si>
-  <si>
-    <t>Discussa</t>
-  </si>
-  <si>
-    <t>Abordada</t>
-  </si>
-  <si>
-    <t>Discutere su un argomento</t>
-  </si>
-  <si>
-    <t>Abordar un tema</t>
-  </si>
-  <si>
-    <t>Aprile</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Allacciato</t>
-  </si>
-  <si>
-    <t>Abrochado</t>
-  </si>
-  <si>
-    <t>Allacciata</t>
-  </si>
-  <si>
-    <t>Abrochada</t>
-  </si>
-  <si>
-    <t>Allacciarsi</t>
-  </si>
-  <si>
-    <t>Abrocharse</t>
-  </si>
-  <si>
-    <t>Nonno</t>
-  </si>
-  <si>
-    <t>Abuelo</t>
-  </si>
-  <si>
-    <t>Nonna</t>
-  </si>
-  <si>
-    <t>Abuela</t>
-  </si>
-  <si>
-    <t>Noioso; Annoiato</t>
-  </si>
-  <si>
-    <t>Aburrido</t>
-  </si>
-  <si>
-    <t>Noiosa; Annoiata</t>
-  </si>
-  <si>
-    <t>Aburrida</t>
-  </si>
-  <si>
-    <t>Qui</t>
-  </si>
-  <si>
-    <t>Acá</t>
-  </si>
-  <si>
-    <t>Finire</t>
-  </si>
-  <si>
-    <t>Acabar</t>
-  </si>
-  <si>
-    <t>Avere appena finito di</t>
-  </si>
-  <si>
-    <t>Acabar de</t>
-  </si>
-  <si>
-    <t>Accedere</t>
-  </si>
-  <si>
-    <t>Acceder</t>
-  </si>
-  <si>
-    <t>Azione</t>
-  </si>
-  <si>
-    <t>Acción</t>
-  </si>
-  <si>
-    <t>Olio</t>
-  </si>
-  <si>
-    <t>Aceite</t>
-  </si>
-  <si>
-    <t>Accento</t>
-  </si>
-  <si>
-    <t>Acento</t>
-  </si>
-  <si>
-    <t>Accettato</t>
-  </si>
-  <si>
-    <t>Aceptado</t>
-  </si>
-  <si>
-    <t>Accettata</t>
-  </si>
-  <si>
-    <t>Aceptada</t>
-  </si>
-  <si>
-    <t>Accettare</t>
-  </si>
-  <si>
-    <t>Aceptar</t>
-  </si>
-  <si>
-    <t>Su; Riguardo</t>
-  </si>
-  <si>
-    <t>Acerca de</t>
-  </si>
-  <si>
-    <t>Avvicinarsi</t>
-  </si>
-  <si>
-    <t>Acercarse</t>
-  </si>
-  <si>
-    <t>Azzeccare; Indovinare</t>
-  </si>
-  <si>
-    <t>Acercar</t>
-  </si>
-  <si>
-    <t>Accompagnare</t>
-  </si>
-  <si>
-    <t>Acompañar</t>
-  </si>
-  <si>
-    <t>Consigliare</t>
-  </si>
-  <si>
-    <t>Aconsejar</t>
-  </si>
-  <si>
-    <t>Concordare</t>
-  </si>
-  <si>
-    <t>Acordar</t>
-  </si>
-  <si>
-    <t>Ricordare</t>
-  </si>
-  <si>
-    <t>Acordarse de</t>
-  </si>
-  <si>
-    <t>Mobbing</t>
-  </si>
-  <si>
-    <t>Acoso laboral</t>
-  </si>
-  <si>
-    <t>Coricarsi</t>
-  </si>
-  <si>
-    <t>Acostarse</t>
-  </si>
-  <si>
-    <t>Abituarsi</t>
-  </si>
-  <si>
-    <t>Acostumbrarse</t>
-  </si>
-  <si>
-    <t>Attività; Mansione</t>
-  </si>
-  <si>
-    <t>Activitad</t>
-  </si>
-  <si>
-    <t>Attivi</t>
-  </si>
-  <si>
-    <t>Activos</t>
-  </si>
-  <si>
-    <t>Evento sociale</t>
-  </si>
-  <si>
-    <t>Acto social</t>
-  </si>
-  <si>
-    <t>Attore</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Attrice</t>
-  </si>
-  <si>
-    <t>Actriz</t>
-  </si>
-  <si>
-    <t>Aggiornamento</t>
-  </si>
-  <si>
-    <t>Actualización</t>
-  </si>
-  <si>
-    <t>Arrivare; Rivolgersi</t>
-  </si>
-  <si>
-    <t>Acudir</t>
-  </si>
-  <si>
-    <t>Accumulato</t>
-  </si>
-  <si>
-    <t>Acumulado</t>
-  </si>
-  <si>
-    <t>Accumulata</t>
-  </si>
-  <si>
-    <t>Acumulada</t>
-  </si>
-  <si>
-    <t>Adeguato</t>
-  </si>
-  <si>
-    <t>Adeguado</t>
-  </si>
-  <si>
-    <t>Adeguata</t>
-  </si>
-  <si>
-    <t>Adeguada</t>
-  </si>
-  <si>
-    <t>Anticipo</t>
-  </si>
-  <si>
-    <t>Adelanto</t>
-  </si>
-  <si>
-    <t>Inoltre</t>
-  </si>
-  <si>
-    <t>Además</t>
-  </si>
-  <si>
-    <t>Debito</t>
-  </si>
-  <si>
-    <t>Adeudo</t>
-  </si>
-  <si>
-    <t>Aderire; Afferire</t>
-  </si>
-  <si>
-    <t>Adherir</t>
-  </si>
-  <si>
-    <t>Addestrato</t>
-  </si>
-  <si>
-    <t>Adiestrado</t>
-  </si>
-  <si>
-    <t>Addestrata</t>
-  </si>
-  <si>
-    <t>Adiestrada</t>
-  </si>
-  <si>
-    <t>Addestrare</t>
-  </si>
-  <si>
-    <t>Adiestrar</t>
-  </si>
-  <si>
-    <t>Ciao (arrivederci)</t>
-  </si>
-  <si>
-    <t>Adiós</t>
-  </si>
-  <si>
-    <t>Beneficiario</t>
-  </si>
-  <si>
-    <t>Adjucatario</t>
-  </si>
-  <si>
-    <t>Beneficiaria</t>
-  </si>
-  <si>
-    <t>Adjucataria</t>
-  </si>
-  <si>
-    <t>Allegare</t>
-  </si>
-  <si>
-    <t>Adjuntar</t>
-  </si>
-  <si>
-    <t>Ammiratore</t>
-  </si>
-  <si>
-    <t>Admirador</t>
-  </si>
-  <si>
-    <t>Ammiratrice</t>
-  </si>
-  <si>
-    <t>Admiradora</t>
-  </si>
-  <si>
-    <t>Adottare</t>
-  </si>
-  <si>
-    <t>Adoptar</t>
-  </si>
-  <si>
-    <t>Assumere un atteggiamento</t>
-  </si>
-  <si>
-    <t>Adoptar una postura</t>
-  </si>
-  <si>
-    <t>Adulatore</t>
-  </si>
-  <si>
-    <t>Adulador</t>
-  </si>
-  <si>
-    <t>Adulatrice</t>
-  </si>
-  <si>
-    <t>Aduladora</t>
-  </si>
-  <si>
-    <t>Avversità</t>
-  </si>
-  <si>
-    <t>Adversidad</t>
-  </si>
-  <si>
-    <t>Aeroporto</t>
-  </si>
-  <si>
-    <t>Aeropuerto</t>
-  </si>
-  <si>
-    <t>Gentile</t>
-  </si>
-  <si>
-    <t>Afable</t>
-  </si>
-  <si>
-    <t>Colpire</t>
-  </si>
-  <si>
-    <t>Afectar</t>
-  </si>
-  <si>
-    <t>Farsi la barba</t>
-  </si>
-  <si>
-    <t>Afeitarse</t>
-  </si>
-  <si>
-    <t>Hobby</t>
-  </si>
-  <si>
-    <t>Afición</t>
-  </si>
-  <si>
-    <t>Affermare</t>
-  </si>
-  <si>
-    <t>Afirmar</t>
-  </si>
-  <si>
-    <t>Fortunatamente; Per fortuna</t>
-  </si>
-  <si>
-    <t>Afortunadamente</t>
-  </si>
-  <si>
-    <t>Agenzia</t>
-  </si>
-  <si>
-    <t>Agencia</t>
-  </si>
-  <si>
-    <t>Agenzia immobiliare</t>
-  </si>
-  <si>
-    <t>Agencia inmobiliaria</t>
-  </si>
-  <si>
-    <t>Agenda</t>
-  </si>
-  <si>
-    <t>Agente commerciale</t>
-  </si>
-  <si>
-    <t>Agente comercial</t>
-  </si>
-  <si>
-    <t>Sfinito</t>
-  </si>
-  <si>
-    <t>Agotado</t>
-  </si>
-  <si>
-    <t>Sfinita</t>
-  </si>
-  <si>
-    <t>Agotada</t>
-  </si>
-  <si>
-    <t>Piacevole</t>
-  </si>
-  <si>
-    <t>Agradable</t>
-  </si>
-  <si>
-    <t>Ringraziare</t>
-  </si>
-  <si>
-    <t>Agradecer</t>
-  </si>
-  <si>
-    <t>Acqua</t>
-  </si>
-  <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>Acqua gassata</t>
-  </si>
-  <si>
-    <t>Agua con gas</t>
-  </si>
-  <si>
-    <t>Sopportare; Soffrire; Tenere</t>
-  </si>
-  <si>
-    <t>Aguantar</t>
-  </si>
-  <si>
-    <t>Acqua non gassata</t>
-  </si>
-  <si>
-    <t>Agua sin gas</t>
-  </si>
-  <si>
-    <t>Lì</t>
-  </si>
-  <si>
-    <t>Ahí</t>
-  </si>
-  <si>
-    <t>Figlioccio</t>
-  </si>
-  <si>
-    <t>Ahijado</t>
-  </si>
-  <si>
-    <t>Figlioccia</t>
-  </si>
-  <si>
-    <t>Ahijada</t>
-  </si>
-  <si>
-    <t>Adesso; Ora</t>
-  </si>
-  <si>
-    <t>Ahora</t>
-  </si>
-  <si>
-    <t>Risparmiatore</t>
-  </si>
-  <si>
-    <t>Ahorrador</t>
-  </si>
-  <si>
-    <t>Risparmiatrice</t>
-  </si>
-  <si>
-    <t>Ahorradora</t>
-  </si>
-  <si>
-    <t>Risparmiare</t>
-  </si>
-  <si>
-    <t>Ahorrar</t>
-  </si>
-  <si>
-    <t>Risparmio</t>
-  </si>
-  <si>
-    <t>Ahorro</t>
-  </si>
-  <si>
-    <t>Aria</t>
-  </si>
-  <si>
-    <t>Aire</t>
-  </si>
-  <si>
-    <t>Aria condizionata</t>
-  </si>
-  <si>
-    <t>Aire acondicionado</t>
-  </si>
-  <si>
-    <t>Estraneo</t>
-  </si>
-  <si>
-    <t>Ajeno</t>
-  </si>
-  <si>
-    <t>Estranea</t>
-  </si>
-  <si>
-    <t>Ajena</t>
-  </si>
-  <si>
-    <t>Fuori dal nostro controllo</t>
-  </si>
-  <si>
-    <t>Ajeno a nuestra voluntad</t>
-  </si>
-  <si>
-    <t>Aglio</t>
-  </si>
-  <si>
-    <t>Ajo</t>
-  </si>
-  <si>
-    <t>Ridimensionare lo staff di un'azienda</t>
-  </si>
-  <si>
-    <t>Ajustar plantillas</t>
-  </si>
-  <si>
-    <t>Aggiustamento; ridefinizione dell'organico</t>
-  </si>
-  <si>
-    <t>Ajuste</t>
-  </si>
-  <si>
-    <t>A fianco di; Accanto a</t>
-  </si>
-  <si>
-    <t>Al lado de</t>
-  </si>
-  <si>
-    <t>Alla fine</t>
-  </si>
-  <si>
-    <t>Al final</t>
-  </si>
-  <si>
-    <t>Allo stesso tempo</t>
-  </si>
-  <si>
-    <t>Al mismo tiempo</t>
-  </si>
-  <si>
-    <t>All'ingrosso</t>
-  </si>
-  <si>
-    <t>Al por mayor</t>
-  </si>
-  <si>
-    <t>Al dettaglio</t>
-  </si>
-  <si>
-    <t>Al por menor</t>
-  </si>
-  <si>
-    <t>Ala</t>
-  </si>
-  <si>
-    <t>Sindaco</t>
-  </si>
-  <si>
-    <t>Alcade</t>
-  </si>
-  <si>
-    <t>Comune; Municipio</t>
-  </si>
-  <si>
-    <t>Alcadía</t>
-  </si>
-  <si>
-    <t>Raggiungere</t>
-  </si>
-  <si>
-    <t>Alcanzar</t>
-  </si>
-  <si>
-    <t>Alcol</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Allegro</t>
-  </si>
-  <si>
-    <t>Alegre</t>
-  </si>
-  <si>
-    <t>Allegra</t>
-  </si>
-  <si>
-    <t>Allegria</t>
-  </si>
-  <si>
-    <t>Alegría</t>
-  </si>
-  <si>
-    <t>Qualcosa</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>Alimento</t>
-  </si>
-  <si>
-    <t>Alleviare; Dare sollievo</t>
-  </si>
-  <si>
-    <t>Aliviar</t>
-  </si>
-  <si>
-    <t>Anima</t>
-  </si>
-  <si>
-    <t>Alma</t>
-  </si>
-  <si>
-    <t>Magazzino</t>
-  </si>
-  <si>
-    <t>Almacén</t>
-  </si>
-  <si>
-    <t>Pranzare</t>
-  </si>
-  <si>
-    <t>Almorzar</t>
-  </si>
-  <si>
-    <t>Alloggiare</t>
-  </si>
-  <si>
-    <t>Alojarse</t>
-  </si>
-  <si>
-    <t>Affitto</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>Intorno</t>
-  </si>
-  <si>
-    <t>Alrededor</t>
-  </si>
-  <si>
-    <t>Intorno a</t>
-  </si>
-  <si>
-    <t>Alrededor de</t>
-  </si>
-  <si>
-    <t>Dintorni</t>
-  </si>
-  <si>
-    <t>Alrededores</t>
-  </si>
-  <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Alunno; Allievo</t>
-  </si>
-  <si>
-    <t>Alumno</t>
-  </si>
-  <si>
-    <t>Alunna; Allieva</t>
-  </si>
-  <si>
-    <t>Alumna</t>
-  </si>
-  <si>
-    <t>Alzare</t>
-  </si>
-  <si>
-    <t>Alzar</t>
-  </si>
-  <si>
-    <t>Là</t>
-  </si>
-  <si>
-    <t>Allá</t>
-  </si>
-  <si>
-    <t>Allí</t>
-  </si>
-  <si>
-    <t>Lì vicino</t>
-  </si>
-  <si>
-    <t>Allí cerca</t>
-  </si>
-  <si>
-    <t>Amable</t>
-  </si>
-  <si>
-    <t>Giallo</t>
-  </si>
-  <si>
-    <t>Amarillo</t>
-  </si>
-  <si>
-    <t>Gialla</t>
-  </si>
-  <si>
-    <t>Amarilla</t>
-  </si>
-  <si>
-    <t>Minaccia</t>
-  </si>
-  <si>
-    <t>Amenaza</t>
-  </si>
-  <si>
-    <t>Ambiente di lavoro</t>
-  </si>
-  <si>
-    <t>Ambiente de trabajo</t>
-  </si>
-  <si>
-    <t>Entrambi</t>
-  </si>
-  <si>
-    <t>Ambos</t>
-  </si>
-  <si>
-    <t>Entrambe</t>
-  </si>
-  <si>
-    <t>Ambas</t>
-  </si>
-  <si>
-    <t>Amico</t>
-  </si>
-  <si>
-    <t>Amigo</t>
-  </si>
-  <si>
-    <t>Amica</t>
-  </si>
-  <si>
-    <t>Amiga</t>
-  </si>
-  <si>
-    <t>Amico del cuore</t>
-  </si>
-  <si>
-    <t>Amigo del alma</t>
-  </si>
-  <si>
-    <t>Amica del cuore</t>
-  </si>
-  <si>
-    <t>Amiga del alma</t>
-  </si>
-  <si>
-    <t>Amicizia</t>
-  </si>
-  <si>
-    <t>Amistad</t>
-  </si>
-  <si>
-    <t>Amore</t>
-  </si>
-  <si>
-    <t>Amor</t>
-  </si>
-  <si>
-    <t>Ammortamento</t>
-  </si>
-  <si>
-    <t>Amortización</t>
-  </si>
-  <si>
-    <t>Amplificare</t>
-  </si>
-  <si>
-    <t>Amplificar</t>
-  </si>
-  <si>
-    <t>Ampio</t>
-  </si>
-  <si>
-    <t>Amplio</t>
-  </si>
-  <si>
-    <t>Ampia</t>
-  </si>
-  <si>
-    <t>Amplia</t>
-  </si>
-  <si>
-    <t>Analisi</t>
-  </si>
-  <si>
-    <t>Análisis</t>
-  </si>
-  <si>
-    <t>Analizzare</t>
-  </si>
-  <si>
-    <t>Analizar</t>
-  </si>
-  <si>
-    <t>Anziano</t>
-  </si>
-  <si>
-    <t>Anciano</t>
-  </si>
-  <si>
-    <t>Anziana</t>
-  </si>
-  <si>
-    <t>Anciana</t>
-  </si>
-  <si>
-    <t>Percorso</t>
-  </si>
-  <si>
-    <t>Andadura</t>
-  </si>
-  <si>
-    <t>Camminare</t>
-  </si>
-  <si>
-    <t>Andar</t>
-  </si>
-  <si>
-    <t>Allegato</t>
-  </si>
-  <si>
-    <t>Anexo</t>
-  </si>
-  <si>
-    <t>Animato; Brillante</t>
-  </si>
-  <si>
-    <t>Animado</t>
-  </si>
-  <si>
-    <t>Animata; Brillante</t>
-  </si>
-  <si>
-    <t>Animada</t>
-  </si>
-  <si>
-    <t>Ieri notte</t>
-  </si>
-  <si>
-    <t>Anoche</t>
-  </si>
-  <si>
-    <t>Ansia</t>
-  </si>
-  <si>
-    <t>Ansiedad</t>
-  </si>
-  <si>
-    <t>Antenato</t>
-  </si>
-  <si>
-    <t>Antepasado</t>
-  </si>
-  <si>
-    <t>Antenata</t>
-  </si>
-  <si>
-    <t>Antepasada</t>
-  </si>
-  <si>
-    <t>Prima</t>
-  </si>
-  <si>
-    <t>Antes</t>
-  </si>
-  <si>
-    <t>Prima di</t>
-  </si>
-  <si>
-    <t>Antes de</t>
-  </si>
-  <si>
-    <t>Anticipato</t>
-  </si>
-  <si>
-    <t>Anticipado</t>
-  </si>
-  <si>
-    <t>Anticipata</t>
-  </si>
-  <si>
-    <t>Anticipada</t>
-  </si>
-  <si>
-    <t>No-global</t>
-  </si>
-  <si>
-    <t>Antiglobalización</t>
-  </si>
-  <si>
-    <t>Vecchio; Antico</t>
-  </si>
-  <si>
-    <t>Antiguo</t>
-  </si>
-  <si>
-    <t>Vecchia; Antica</t>
-  </si>
-  <si>
-    <t>Antigua</t>
-  </si>
-  <si>
-    <t>Annuale</t>
-  </si>
-  <si>
-    <t>Anual</t>
-  </si>
-  <si>
-    <t>Annullato</t>
-  </si>
-  <si>
-    <t>Anulado</t>
-  </si>
-  <si>
-    <t>Annullata</t>
-  </si>
-  <si>
-    <t>Anulada</t>
-  </si>
-  <si>
-    <t>Annullare; Sospendere</t>
-  </si>
-  <si>
-    <t>Anular</t>
-  </si>
-  <si>
-    <t>Annunciare</t>
-  </si>
-  <si>
-    <t>Anunciar</t>
-  </si>
-  <si>
-    <t>Anno</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Spegnere</t>
-  </si>
-  <si>
-    <t>Apagar</t>
-  </si>
-  <si>
-    <t>Apparecchio</t>
-  </si>
-  <si>
-    <t>Aparato</t>
-  </si>
-  <si>
-    <t>Comparire</t>
-  </si>
-  <si>
-    <t>Aparecer</t>
-  </si>
-  <si>
-    <t>Rappresentare</t>
-  </si>
-  <si>
-    <t>Aparentar</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Appena</t>
-  </si>
-  <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>Aperitivo</t>
-  </si>
-  <si>
-    <t>Venire voglia</t>
-  </si>
-  <si>
-    <t>Apetecer</t>
-  </si>
-  <si>
-    <t>Posticipare</t>
-  </si>
-  <si>
-    <t>Aplazar</t>
-  </si>
-  <si>
-    <t>Diligente</t>
-  </si>
-  <si>
-    <t>Aplicado</t>
-  </si>
-  <si>
-    <t>Contributo</t>
-  </si>
-  <si>
-    <t>Aportación</t>
-  </si>
-  <si>
-    <t>Contribuire</t>
-  </si>
-  <si>
-    <t>Aportar</t>
-  </si>
-  <si>
-    <t>Scommettere; Puntare</t>
-  </si>
-  <si>
-    <t>Apostar</t>
-  </si>
-  <si>
-    <t>Appoggiare</t>
-  </si>
-  <si>
-    <t>Apoyar</t>
-  </si>
-  <si>
-    <t>Appoggiato</t>
-  </si>
-  <si>
-    <t>Apoyado</t>
-  </si>
-  <si>
-    <t>Appoggiata</t>
-  </si>
-  <si>
-    <t>Apoyada</t>
-  </si>
-  <si>
-    <t>Apprezzato</t>
-  </si>
-  <si>
-    <t>Apreciado</t>
-  </si>
-  <si>
-    <t>Apprezzata</t>
-  </si>
-  <si>
-    <t>Apreciada</t>
-  </si>
-  <si>
-    <t>Apprezzare</t>
-  </si>
-  <si>
-    <t>Apreciar</t>
-  </si>
-  <si>
-    <t>Apprendistato; Apprendimento</t>
-  </si>
-  <si>
-    <t>Aprendizaje</t>
-  </si>
-  <si>
-    <t>Stringere; Schiacciare; Farsi sentire</t>
-  </si>
-  <si>
-    <t>Apretar</t>
-  </si>
-  <si>
-    <t>Stretta di mani</t>
-  </si>
-  <si>
-    <t>Apretón de manos</t>
-  </si>
-  <si>
-    <t>Essere promosso; Approvare</t>
-  </si>
-  <si>
-    <t>Aprobar</t>
-  </si>
-  <si>
-    <t>Approfittare</t>
-  </si>
-  <si>
-    <t>Aprovechar</t>
-  </si>
-  <si>
-    <t>Capacità</t>
-  </si>
-  <si>
-    <t>Aptitudes</t>
-  </si>
-  <si>
-    <t>Aitante</t>
-  </si>
-  <si>
-    <t>Apuesto</t>
-  </si>
-  <si>
-    <t>Appunto</t>
-  </si>
-  <si>
-    <t>Apunte</t>
-  </si>
-  <si>
-    <t>Guaio; Problema</t>
-  </si>
-  <si>
-    <t>Apuro</t>
-  </si>
-  <si>
-    <t>Aquí</t>
-  </si>
-  <si>
-    <t>Albero</t>
-  </si>
-  <si>
-    <t>Árbol</t>
-  </si>
-  <si>
-    <t>Schedario</t>
-  </si>
-  <si>
-    <t>Archivador</t>
-  </si>
-  <si>
-    <t>Aggiustare</t>
-  </si>
-  <si>
-    <t>Arreglar</t>
-  </si>
-  <si>
-    <t>Leasing finanziario</t>
-  </si>
-  <si>
-    <t>Arrendamiento financiero</t>
-  </si>
-  <si>
-    <t>Pentirsi</t>
-  </si>
-  <si>
-    <t>Arrepentirse</t>
-  </si>
-  <si>
-    <t>Su</t>
-  </si>
-  <si>
-    <t>Arriba</t>
-  </si>
-  <si>
-    <t>Accostarsi; Avvicinarsi</t>
-  </si>
-  <si>
-    <t>Arrimarse</t>
-  </si>
-  <si>
-    <t>Stropicciato</t>
-  </si>
-  <si>
-    <t>Arrugado</t>
-  </si>
-  <si>
-    <t>Stropicciata</t>
-  </si>
-  <si>
-    <t>Arrugada</t>
-  </si>
-  <si>
-    <t>Rovinato; Andato in rovina</t>
-  </si>
-  <si>
-    <t>Arruinado</t>
-  </si>
-  <si>
-    <t>Rovinata; Andata in rovina</t>
-  </si>
-  <si>
-    <t>Arruinada</t>
-  </si>
-  <si>
-    <t>Rovinarsi</t>
-  </si>
-  <si>
-    <t>Arruinarse</t>
-  </si>
-  <si>
-    <t>Artigianato</t>
-  </si>
-  <si>
-    <t>Artesanía</t>
-  </si>
-  <si>
-    <t>Articolo</t>
-  </si>
-  <si>
-    <t>Artículo</t>
-  </si>
-  <si>
-    <t>Stipendiato</t>
-  </si>
-  <si>
-    <t>Asalariado</t>
-  </si>
-  <si>
-    <t>Stipendiata</t>
-  </si>
-  <si>
-    <t>Asalariada</t>
-  </si>
-  <si>
-    <t>Salire</t>
-  </si>
-  <si>
-    <t>Ascender</t>
-  </si>
-  <si>
-    <t>Promozione; Aumento di categoria; Salita</t>
-  </si>
-  <si>
-    <t>Ascenso</t>
-  </si>
-  <si>
-    <t>Ascensore</t>
-  </si>
-  <si>
-    <t>Ascensor</t>
-  </si>
-  <si>
-    <t>Assicurare</t>
-  </si>
-  <si>
-    <t>Asegurar</t>
-  </si>
-  <si>
-    <t>Assenso</t>
-  </si>
-  <si>
-    <t>Asentimiento</t>
-  </si>
-  <si>
-    <t>Assassino</t>
-  </si>
-  <si>
-    <t>Asesino</t>
-  </si>
-  <si>
-    <t>Assassina</t>
-  </si>
-  <si>
-    <t>Asesina</t>
-  </si>
-  <si>
-    <t>Commercialista</t>
-  </si>
-  <si>
-    <t>Asesor fiscal</t>
-  </si>
-  <si>
-    <t>Consulenza</t>
-  </si>
-  <si>
-    <t>Asesoramiento</t>
-  </si>
-  <si>
-    <t>Così; In questo modo</t>
-  </si>
-  <si>
-    <t>Así</t>
-  </si>
-  <si>
-    <t>Così come</t>
-  </si>
-  <si>
-    <t>Así como</t>
-  </si>
-  <si>
-    <t>Pertanto</t>
-  </si>
-  <si>
-    <t>Así que</t>
-  </si>
-  <si>
-    <t>Assegnazione</t>
-  </si>
-  <si>
-    <t>Asignación</t>
-  </si>
-  <si>
-    <t>Materia</t>
-  </si>
-  <si>
-    <t>Asignatura</t>
-  </si>
-  <si>
-    <t>Asimismo</t>
-  </si>
-  <si>
-    <t>Assistere</t>
-  </si>
-  <si>
-    <t>Asistir</t>
-  </si>
-  <si>
-    <t>Aspirare</t>
-  </si>
-  <si>
-    <t>Aspirar</t>
-  </si>
-  <si>
-    <t>Astrologia</t>
-  </si>
-  <si>
-    <t>Astrología</t>
-  </si>
-  <si>
-    <t>Faccenda; Vicenda; Affare</t>
-  </si>
-  <si>
-    <t>Asunto</t>
-  </si>
-  <si>
-    <t>Spaventare</t>
-  </si>
-  <si>
-    <t>Asustar</t>
-  </si>
-  <si>
-    <t>Spaventarsi</t>
-  </si>
-  <si>
-    <t>Asustarse</t>
-  </si>
-  <si>
-    <t>Legato; Allacciato</t>
-  </si>
-  <si>
-    <t>Atado</t>
-  </si>
-  <si>
-    <t>Legata; Allacciata</t>
-  </si>
-  <si>
-    <t>Atada</t>
-  </si>
-  <si>
-    <t>Legare</t>
-  </si>
-  <si>
-    <t>Atar</t>
-  </si>
-  <si>
-    <t>Assistenza specialistica</t>
-  </si>
-  <si>
-    <t>Atención especializada</t>
-  </si>
-  <si>
-    <t>Assistenza primaria</t>
-  </si>
-  <si>
-    <t>Atención primaria</t>
-  </si>
-  <si>
-    <t>Attentamente</t>
-  </si>
-  <si>
-    <t>Atentamente</t>
-  </si>
-  <si>
-    <t>Attento</t>
-  </si>
-  <si>
-    <t>Atento</t>
-  </si>
-  <si>
-    <t>Attenta</t>
-  </si>
-  <si>
-    <t>Atenta</t>
-  </si>
-  <si>
-    <t>Intimorire</t>
-  </si>
-  <si>
-    <t>Aterrar</t>
-  </si>
-  <si>
-    <t>Attico</t>
-  </si>
-  <si>
-    <t>Ático</t>
-  </si>
-  <si>
-    <t>Attraente</t>
-  </si>
-  <si>
-    <t>Atractivo</t>
-  </si>
-  <si>
-    <t>Attrarre</t>
-  </si>
-  <si>
-    <t>Atraer</t>
-  </si>
-  <si>
-    <t>Tribunale</t>
-  </si>
-  <si>
-    <t>Audencia provincial</t>
-  </si>
-  <si>
-    <t>Aula</t>
-  </si>
-  <si>
-    <t>Aumento</t>
-  </si>
-  <si>
-    <t>Aumento di stipendio</t>
-  </si>
-  <si>
-    <t>Aumento de sueldo</t>
-  </si>
-  <si>
-    <t>Ancora</t>
-  </si>
-  <si>
-    <t>Aún</t>
-  </si>
-  <si>
-    <t>Persino</t>
-  </si>
-  <si>
-    <t>Aun</t>
-  </si>
-  <si>
-    <t>Autobus; Pullman</t>
-  </si>
-  <si>
-    <t>Autobús</t>
-  </si>
-  <si>
-    <t>Autore</t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>Autrice</t>
-  </si>
-  <si>
-    <t>Autora</t>
-  </si>
-  <si>
-    <t>Autoritario</t>
-  </si>
-  <si>
-    <t>Autoritaria</t>
-  </si>
-  <si>
-    <t>Fare vergognare qualcuno</t>
-  </si>
-  <si>
-    <t>Avergonzar</t>
-  </si>
-  <si>
-    <t>Vergognarsi</t>
-  </si>
-  <si>
-    <t>Avergonzarse</t>
-  </si>
-  <si>
-    <t>Guasto; Avaria</t>
-  </si>
-  <si>
-    <t>Avería</t>
-  </si>
-  <si>
-    <t>Aereo</t>
-  </si>
-  <si>
-    <t>Avión</t>
-  </si>
-  <si>
-    <t>Ieri</t>
-  </si>
-  <si>
-    <t>Ayer</t>
-  </si>
-  <si>
-    <t>Aiuto</t>
-  </si>
-  <si>
-    <t>Ayuda</t>
-  </si>
-  <si>
-    <t>Aiutare</t>
-  </si>
-  <si>
-    <t>Ayudar</t>
-  </si>
-  <si>
-    <t>Comune</t>
-  </si>
-  <si>
-    <t>Ayuntamiento</t>
-  </si>
-  <si>
-    <t>Avventura</t>
-  </si>
-  <si>
-    <t>Aventura</t>
-  </si>
-  <si>
-    <t>Velina</t>
-  </si>
-  <si>
-    <t>Azafata de televisión</t>
-  </si>
-  <si>
-    <t>Hostess di congressi</t>
-  </si>
-  <si>
-    <t>Azafata de congresos</t>
-  </si>
-  <si>
-    <t>Hostess di volo</t>
-  </si>
-  <si>
-    <t>Azafato</t>
-  </si>
-  <si>
-    <t>Zucchero</t>
-  </si>
-  <si>
-    <t>Azúcar</t>
-  </si>
-  <si>
-    <t>Azzurro; Blu</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>Studi di Scuola Superiore</t>
-  </si>
-  <si>
-    <t>Bachiller</t>
-  </si>
-  <si>
-    <t>Ballo</t>
-  </si>
-  <si>
-    <t>Baile</t>
-  </si>
-  <si>
-    <t>Scendere; Diminuire</t>
-  </si>
-  <si>
-    <t>Bajar</t>
-  </si>
-  <si>
-    <t>Basso</t>
-  </si>
-  <si>
-    <t>Bajo</t>
-  </si>
-  <si>
-    <t>Bassa</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Sotto controllo</t>
-  </si>
-  <si>
-    <t>Bajo control</t>
-  </si>
-  <si>
-    <t>Sotto cauzione</t>
-  </si>
-  <si>
-    <t>Bajo fianza</t>
-  </si>
-  <si>
-    <t>Sotto terra</t>
-  </si>
-  <si>
-    <t>Bajo tierra</t>
-  </si>
-  <si>
-    <t>Pallone</t>
-  </si>
-  <si>
-    <t>Balón</t>
-  </si>
-  <si>
-    <t>Bambù</t>
-  </si>
-  <si>
-    <t>Bambú</t>
-  </si>
-  <si>
-    <t>Banca</t>
-  </si>
-  <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>Fare il bagno</t>
-  </si>
-  <si>
-    <t>Bañar</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Barba</t>
-  </si>
-  <si>
-    <t>Barca</t>
-  </si>
-  <si>
-    <t>Barco</t>
-  </si>
-  <si>
-    <t>Bancone del bar; Sbarra; Unità di misura del burro; Pane</t>
-  </si>
-  <si>
-    <t>Barra</t>
-  </si>
-  <si>
-    <t>Quartiere</t>
-  </si>
-  <si>
-    <t>Barrio</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Base regolatrice</t>
-  </si>
-  <si>
-    <t>Base reguladora</t>
-  </si>
-  <si>
-    <t>Abbastanza; Parecchio</t>
-  </si>
-  <si>
-    <t>Bastante</t>
-  </si>
-  <si>
-    <t>Battaglia</t>
-  </si>
-  <si>
-    <t>Batalla</t>
-  </si>
-  <si>
-    <t>Battere</t>
-  </si>
-  <si>
-    <t>Batir</t>
-  </si>
-  <si>
-    <t>Baule</t>
-  </si>
-  <si>
-    <t>Baúl</t>
-  </si>
-  <si>
-    <t>Bere</t>
-  </si>
-  <si>
-    <t>Beber</t>
-  </si>
-  <si>
-    <t>Borsa di studio</t>
-  </si>
-  <si>
-    <t>Beca</t>
-  </si>
-  <si>
-    <t>Assegno di ricerca</t>
-  </si>
-  <si>
-    <t>Beca de investigación</t>
-  </si>
-  <si>
-    <t>Borsista; Stagista</t>
-  </si>
-  <si>
-    <t>Becario</t>
-  </si>
-  <si>
-    <t>Beneficio; Vantaggio</t>
-  </si>
-  <si>
-    <t>Beneficio</t>
-  </si>
-  <si>
-    <t>Benefici sociali</t>
-  </si>
-  <si>
-    <t>Beneficios sociales</t>
-  </si>
-  <si>
-    <t>Mountain bike</t>
-  </si>
-  <si>
-    <t>Bicicleta de montaña</t>
-  </si>
-  <si>
-    <t>Bene</t>
-  </si>
-  <si>
-    <t>Bien</t>
-  </si>
-  <si>
-    <t>Benvenuto</t>
-  </si>
-  <si>
-    <t>Bienvenido</t>
-  </si>
-  <si>
-    <t>Benvenuta</t>
-  </si>
-  <si>
-    <t>Bienvenida</t>
-  </si>
-  <si>
-    <t>Biglietto; Banconota</t>
-  </si>
-  <si>
-    <t>Billete</t>
-  </si>
-  <si>
-    <t>Bianco</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
-    <t>Bianca</t>
-  </si>
-  <si>
-    <t>Blanca</t>
-  </si>
-  <si>
-    <t>Bocca</t>
-  </si>
-  <si>
-    <t>Boca</t>
-  </si>
-  <si>
-    <t>Matrimonio</t>
-  </si>
-  <si>
-    <t>Boda</t>
-  </si>
-  <si>
-    <t>Penna</t>
-  </si>
-  <si>
-    <t>Bolígrafo</t>
-  </si>
-  <si>
-    <t>Borsa</t>
-  </si>
-  <si>
-    <t>Bolsa</t>
-  </si>
-  <si>
-    <t>Sacchetto di plastica</t>
-  </si>
-  <si>
-    <t>Bolsa de plástico</t>
-  </si>
-  <si>
-    <t>Borsa; Borsone</t>
-  </si>
-  <si>
-    <t>Bolso</t>
-  </si>
-  <si>
-    <t>Bombardare</t>
-  </si>
-  <si>
-    <t>Bombardear</t>
-  </si>
-  <si>
-    <t>Bontà</t>
-  </si>
-  <si>
-    <t>Bondad</t>
-  </si>
-  <si>
-    <t>Bonifica</t>
-  </si>
-  <si>
-    <t>Bonificación</t>
-  </si>
-  <si>
-    <t>Cancellare</t>
-  </si>
-  <si>
-    <t>Borrar</t>
-  </si>
-  <si>
-    <t>Bottiglia</t>
-  </si>
-  <si>
-    <t>Botella</t>
-  </si>
-  <si>
-    <t>Scherzo</t>
-  </si>
-  <si>
-    <t>Broma</t>
-  </si>
-  <si>
-    <t>Spiritoso</t>
-  </si>
-  <si>
-    <t>Bromista</t>
-  </si>
-  <si>
-    <t>Spiritosa</t>
-  </si>
-  <si>
-    <t>Buona notte</t>
-  </si>
-  <si>
-    <t>Buenas noches</t>
-  </si>
-  <si>
-    <t>Buon pomeriggio; Buona sera</t>
-  </si>
-  <si>
-    <t>Buenas tardes</t>
-  </si>
-  <si>
-    <t>Buono; Bravo; Di qualità</t>
-  </si>
-  <si>
-    <t>Bueno</t>
-  </si>
-  <si>
-    <t>Buona; Brava; Di qualità</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>Beh</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Buenos días</t>
-  </si>
-  <si>
-    <t>Cercare</t>
-  </si>
-  <si>
-    <t>Buscar</t>
-  </si>
-  <si>
-    <t>Ricerca</t>
-  </si>
-  <si>
-    <t>Búsqueda</t>
+    <t>a breve scadenza</t>
+  </si>
+  <si>
+    <t>a corto plazo</t>
+  </si>
+  <si>
+    <t>alla fine di</t>
+  </si>
+  <si>
+    <t>a finales de</t>
+  </si>
+  <si>
+    <t>a fiamma bassa</t>
+  </si>
+  <si>
+    <t>a fuego lento</t>
+  </si>
+  <si>
+    <t>a destra di</t>
+  </si>
+  <si>
+    <t>a la derecha de</t>
+  </si>
+  <si>
+    <t>a sinistra di</t>
+  </si>
+  <si>
+    <t>a la iziquierda de</t>
+  </si>
+  <si>
+    <t>alla lunga</t>
+  </si>
+  <si>
+    <t>a la larga</t>
+  </si>
+  <si>
+    <t>a lunga scadenza</t>
+  </si>
+  <si>
+    <t>a largo plazo</t>
+  </si>
+  <si>
+    <t>forse</t>
+  </si>
+  <si>
+    <t>a lo mejor</t>
+  </si>
+  <si>
+    <t>spesso</t>
+  </si>
+  <si>
+    <t>a menudo</t>
+  </si>
+  <si>
+    <t>far finta di non sentire</t>
+  </si>
+  <si>
+    <t>a palabras necias, oídos sordos</t>
+  </si>
+  <si>
+    <t>in tempo</t>
+  </si>
+  <si>
+    <t>a tiempo</t>
+  </si>
+  <si>
+    <t>dimmi un po'</t>
+  </si>
+  <si>
+    <t>a todo esto</t>
+  </si>
+  <si>
+    <t>sperare che</t>
+  </si>
+  <si>
+    <t>a ver si</t>
+  </si>
+  <si>
+    <t>per posta di ritorno</t>
+  </si>
+  <si>
+    <t>a vuelta de correo</t>
+  </si>
+  <si>
+    <t>giù; abbasso</t>
+  </si>
+  <si>
+    <t>abajo</t>
+  </si>
+  <si>
+    <t>abbracciare</t>
+  </si>
+  <si>
+    <t>abarcar</t>
+  </si>
+  <si>
+    <t>aperto</t>
+  </si>
+  <si>
+    <t>abierto</t>
+  </si>
+  <si>
+    <t>aperta</t>
+  </si>
+  <si>
+    <t>abierta</t>
+  </si>
+  <si>
+    <t>avvocato</t>
+  </si>
+  <si>
+    <t>abogado</t>
+  </si>
+  <si>
+    <t>avvocatessa</t>
+  </si>
+  <si>
+    <t>abogada</t>
+  </si>
+  <si>
+    <t>avvocato del lavoro</t>
+  </si>
+  <si>
+    <t>abogado laboralista</t>
+  </si>
+  <si>
+    <t>avvocatessa del lavoro</t>
+  </si>
+  <si>
+    <t>abogada laboralista</t>
+  </si>
+  <si>
+    <t>pagare le tasse universitarie</t>
+  </si>
+  <si>
+    <t>abonar las tasas</t>
+  </si>
+  <si>
+    <t>discusso</t>
+  </si>
+  <si>
+    <t>abordado</t>
+  </si>
+  <si>
+    <t>discussa</t>
+  </si>
+  <si>
+    <t>abordada</t>
+  </si>
+  <si>
+    <t>discutere su un argomento</t>
+  </si>
+  <si>
+    <t>abordar un tema</t>
+  </si>
+  <si>
+    <t>aprile</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>allacciato</t>
+  </si>
+  <si>
+    <t>abrochado</t>
+  </si>
+  <si>
+    <t>allacciata</t>
+  </si>
+  <si>
+    <t>abrochada</t>
+  </si>
+  <si>
+    <t>allacciarsi</t>
+  </si>
+  <si>
+    <t>abrocharse</t>
+  </si>
+  <si>
+    <t>nonno</t>
+  </si>
+  <si>
+    <t>abuelo</t>
+  </si>
+  <si>
+    <t>nonna</t>
+  </si>
+  <si>
+    <t>abuela</t>
+  </si>
+  <si>
+    <t>noioso; annoiato</t>
+  </si>
+  <si>
+    <t>aburrido</t>
+  </si>
+  <si>
+    <t>noiosa; annoiata</t>
+  </si>
+  <si>
+    <t>aburrida</t>
+  </si>
+  <si>
+    <t>qui</t>
+  </si>
+  <si>
+    <t>acá</t>
+  </si>
+  <si>
+    <t>finire</t>
+  </si>
+  <si>
+    <t>acabar</t>
+  </si>
+  <si>
+    <t>avere appena finito di</t>
+  </si>
+  <si>
+    <t>acabar de</t>
+  </si>
+  <si>
+    <t>accedere</t>
+  </si>
+  <si>
+    <t>acceder</t>
+  </si>
+  <si>
+    <t>azione</t>
+  </si>
+  <si>
+    <t>acción</t>
+  </si>
+  <si>
+    <t>olio</t>
+  </si>
+  <si>
+    <t>aceite</t>
+  </si>
+  <si>
+    <t>accento</t>
+  </si>
+  <si>
+    <t>acento</t>
+  </si>
+  <si>
+    <t>accettato</t>
+  </si>
+  <si>
+    <t>aceptado</t>
+  </si>
+  <si>
+    <t>accettata</t>
+  </si>
+  <si>
+    <t>aceptada</t>
+  </si>
+  <si>
+    <t>accettare</t>
+  </si>
+  <si>
+    <t>aceptar</t>
+  </si>
+  <si>
+    <t>su; riguardo</t>
+  </si>
+  <si>
+    <t>acerca de</t>
+  </si>
+  <si>
+    <t>avvicinarsi</t>
+  </si>
+  <si>
+    <t>acercarse</t>
+  </si>
+  <si>
+    <t>azzeccare; indovinare</t>
+  </si>
+  <si>
+    <t>acercar</t>
+  </si>
+  <si>
+    <t>accompagnare</t>
+  </si>
+  <si>
+    <t>acompañar</t>
+  </si>
+  <si>
+    <t>consigliare</t>
+  </si>
+  <si>
+    <t>aconsejar</t>
+  </si>
+  <si>
+    <t>concordare</t>
+  </si>
+  <si>
+    <t>acordar</t>
+  </si>
+  <si>
+    <t>ricordare</t>
+  </si>
+  <si>
+    <t>acordarse de</t>
+  </si>
+  <si>
+    <t>mobbing</t>
+  </si>
+  <si>
+    <t>acoso laboral</t>
+  </si>
+  <si>
+    <t>coricarsi</t>
+  </si>
+  <si>
+    <t>acostarse</t>
+  </si>
+  <si>
+    <t>abituarsi</t>
+  </si>
+  <si>
+    <t>acostumbrarse</t>
+  </si>
+  <si>
+    <t>attività; mansione</t>
+  </si>
+  <si>
+    <t>activitad</t>
+  </si>
+  <si>
+    <t>attivi</t>
+  </si>
+  <si>
+    <t>activos</t>
+  </si>
+  <si>
+    <t>evento sociale</t>
+  </si>
+  <si>
+    <t>acto social</t>
+  </si>
+  <si>
+    <t>attore</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>attrice</t>
+  </si>
+  <si>
+    <t>actriz</t>
+  </si>
+  <si>
+    <t>aggiornamento</t>
+  </si>
+  <si>
+    <t>actualización</t>
+  </si>
+  <si>
+    <t>arrivare; rivolgersi</t>
+  </si>
+  <si>
+    <t>acudir</t>
+  </si>
+  <si>
+    <t>accumulato</t>
+  </si>
+  <si>
+    <t>acumulado</t>
+  </si>
+  <si>
+    <t>accumulata</t>
+  </si>
+  <si>
+    <t>acumulada</t>
+  </si>
+  <si>
+    <t>adeguato</t>
+  </si>
+  <si>
+    <t>adeguado</t>
+  </si>
+  <si>
+    <t>adeguata</t>
+  </si>
+  <si>
+    <t>adeguada</t>
+  </si>
+  <si>
+    <t>anticipo</t>
+  </si>
+  <si>
+    <t>adelanto</t>
+  </si>
+  <si>
+    <t>inoltre</t>
+  </si>
+  <si>
+    <t>además</t>
+  </si>
+  <si>
+    <t>debito</t>
+  </si>
+  <si>
+    <t>adeudo</t>
+  </si>
+  <si>
+    <t>aderire; afferire</t>
+  </si>
+  <si>
+    <t>adherir</t>
+  </si>
+  <si>
+    <t>addestrato</t>
+  </si>
+  <si>
+    <t>adiestrado</t>
+  </si>
+  <si>
+    <t>addestrata</t>
+  </si>
+  <si>
+    <t>adiestrada</t>
+  </si>
+  <si>
+    <t>addestrare</t>
+  </si>
+  <si>
+    <t>adiestrar</t>
+  </si>
+  <si>
+    <t>ciao (arrivederci)</t>
+  </si>
+  <si>
+    <t>adiós</t>
+  </si>
+  <si>
+    <t>beneficiario</t>
+  </si>
+  <si>
+    <t>adjucatario</t>
+  </si>
+  <si>
+    <t>beneficiaria</t>
+  </si>
+  <si>
+    <t>adjucataria</t>
+  </si>
+  <si>
+    <t>allegare</t>
+  </si>
+  <si>
+    <t>adjuntar</t>
+  </si>
+  <si>
+    <t>ammiratore</t>
+  </si>
+  <si>
+    <t>admirador</t>
+  </si>
+  <si>
+    <t>ammiratrice</t>
+  </si>
+  <si>
+    <t>admiradora</t>
+  </si>
+  <si>
+    <t>adottare</t>
+  </si>
+  <si>
+    <t>adoptar</t>
+  </si>
+  <si>
+    <t>assumere un atteggiamento</t>
+  </si>
+  <si>
+    <t>adoptar una postura</t>
+  </si>
+  <si>
+    <t>adulatore</t>
+  </si>
+  <si>
+    <t>adulador</t>
+  </si>
+  <si>
+    <t>adulatrice</t>
+  </si>
+  <si>
+    <t>aduladora</t>
+  </si>
+  <si>
+    <t>avversità</t>
+  </si>
+  <si>
+    <t>adversidad</t>
+  </si>
+  <si>
+    <t>aeroporto</t>
+  </si>
+  <si>
+    <t>aeropuerto</t>
+  </si>
+  <si>
+    <t>gentile</t>
+  </si>
+  <si>
+    <t>afable</t>
+  </si>
+  <si>
+    <t>colpire</t>
+  </si>
+  <si>
+    <t>afectar</t>
+  </si>
+  <si>
+    <t>farsi la barba</t>
+  </si>
+  <si>
+    <t>afeitarse</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>afición</t>
+  </si>
+  <si>
+    <t>affermare</t>
+  </si>
+  <si>
+    <t>afirmar</t>
+  </si>
+  <si>
+    <t>fortunatamente; per fortuna</t>
+  </si>
+  <si>
+    <t>afortunadamente</t>
+  </si>
+  <si>
+    <t>agenzia</t>
+  </si>
+  <si>
+    <t>agencia</t>
+  </si>
+  <si>
+    <t>agenzia immobiliare</t>
+  </si>
+  <si>
+    <t>agencia inmobiliaria</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>agente commerciale</t>
+  </si>
+  <si>
+    <t>agente comercial</t>
+  </si>
+  <si>
+    <t>sfinito</t>
+  </si>
+  <si>
+    <t>agotado</t>
+  </si>
+  <si>
+    <t>sfinita</t>
+  </si>
+  <si>
+    <t>agotada</t>
+  </si>
+  <si>
+    <t>piacevole</t>
+  </si>
+  <si>
+    <t>agradable</t>
+  </si>
+  <si>
+    <t>ringraziare</t>
+  </si>
+  <si>
+    <t>agradecer</t>
+  </si>
+  <si>
+    <t>acqua</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>acqua gassata</t>
+  </si>
+  <si>
+    <t>agua con gas</t>
+  </si>
+  <si>
+    <t>sopportare; soffrire; tenere</t>
+  </si>
+  <si>
+    <t>aguantar</t>
+  </si>
+  <si>
+    <t>acqua non gassata</t>
+  </si>
+  <si>
+    <t>agua sin gas</t>
+  </si>
+  <si>
+    <t>lì</t>
+  </si>
+  <si>
+    <t>ahí</t>
+  </si>
+  <si>
+    <t>figlioccio</t>
+  </si>
+  <si>
+    <t>ahijado</t>
+  </si>
+  <si>
+    <t>figlioccia</t>
+  </si>
+  <si>
+    <t>ahijada</t>
+  </si>
+  <si>
+    <t>adesso; ora</t>
+  </si>
+  <si>
+    <t>ahora</t>
+  </si>
+  <si>
+    <t>risparmiatore</t>
+  </si>
+  <si>
+    <t>ahorrador</t>
+  </si>
+  <si>
+    <t>risparmiatrice</t>
+  </si>
+  <si>
+    <t>ahorradora</t>
+  </si>
+  <si>
+    <t>risparmiare</t>
+  </si>
+  <si>
+    <t>ahorrar</t>
+  </si>
+  <si>
+    <t>risparmio</t>
+  </si>
+  <si>
+    <t>ahorro</t>
+  </si>
+  <si>
+    <t>aria</t>
+  </si>
+  <si>
+    <t>aire</t>
+  </si>
+  <si>
+    <t>aria condizionata</t>
+  </si>
+  <si>
+    <t>aire acondicionado</t>
+  </si>
+  <si>
+    <t>estraneo</t>
+  </si>
+  <si>
+    <t>ajeno</t>
+  </si>
+  <si>
+    <t>estranea</t>
+  </si>
+  <si>
+    <t>ajena</t>
+  </si>
+  <si>
+    <t>fuori dal nostro controllo</t>
+  </si>
+  <si>
+    <t>ajeno a nuestra voluntad</t>
+  </si>
+  <si>
+    <t>aglio</t>
+  </si>
+  <si>
+    <t>ajo</t>
+  </si>
+  <si>
+    <t>ridimensionare lo staff di un'azienda</t>
+  </si>
+  <si>
+    <t>ajustar plantillas</t>
+  </si>
+  <si>
+    <t>aggiustamento; ridefinizione dell'organico</t>
+  </si>
+  <si>
+    <t>ajuste</t>
+  </si>
+  <si>
+    <t>a fianco di; accanto a</t>
+  </si>
+  <si>
+    <t>al lado de</t>
+  </si>
+  <si>
+    <t>alla fine</t>
+  </si>
+  <si>
+    <t>al final</t>
+  </si>
+  <si>
+    <t>allo stesso tempo</t>
+  </si>
+  <si>
+    <t>al mismo tiempo</t>
+  </si>
+  <si>
+    <t>all'ingrosso</t>
+  </si>
+  <si>
+    <t>al por mayor</t>
+  </si>
+  <si>
+    <t>al dettaglio</t>
+  </si>
+  <si>
+    <t>al por menor</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>sindaco</t>
+  </si>
+  <si>
+    <t>alcade</t>
+  </si>
+  <si>
+    <t>comune; municipio</t>
+  </si>
+  <si>
+    <t>alcadía</t>
+  </si>
+  <si>
+    <t>raggiungere</t>
+  </si>
+  <si>
+    <t>alcanzar</t>
+  </si>
+  <si>
+    <t>alcol</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>allegro</t>
+  </si>
+  <si>
+    <t>alegre</t>
+  </si>
+  <si>
+    <t>allegra</t>
+  </si>
+  <si>
+    <t>allegria</t>
+  </si>
+  <si>
+    <t>alegría</t>
+  </si>
+  <si>
+    <t>qualcosa</t>
+  </si>
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t>alimento</t>
+  </si>
+  <si>
+    <t>alleviare; dare sollievo</t>
+  </si>
+  <si>
+    <t>aliviar</t>
+  </si>
+  <si>
+    <t>anima</t>
+  </si>
+  <si>
+    <t>alma</t>
+  </si>
+  <si>
+    <t>magazzino</t>
+  </si>
+  <si>
+    <t>almacén</t>
+  </si>
+  <si>
+    <t>pranzare</t>
+  </si>
+  <si>
+    <t>almorzar</t>
+  </si>
+  <si>
+    <t>alloggiare</t>
+  </si>
+  <si>
+    <t>alojarse</t>
+  </si>
+  <si>
+    <t>affitto</t>
+  </si>
+  <si>
+    <t>alquiler</t>
+  </si>
+  <si>
+    <t>intorno</t>
+  </si>
+  <si>
+    <t>alrededor</t>
+  </si>
+  <si>
+    <t>intorno a</t>
+  </si>
+  <si>
+    <t>alrededor de</t>
+  </si>
+  <si>
+    <t>dintorni</t>
+  </si>
+  <si>
+    <t>alrededores</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>alunno; allievo</t>
+  </si>
+  <si>
+    <t>alumno</t>
+  </si>
+  <si>
+    <t>alunna; allieva</t>
+  </si>
+  <si>
+    <t>alumna</t>
+  </si>
+  <si>
+    <t>alzare</t>
+  </si>
+  <si>
+    <t>alzar</t>
+  </si>
+  <si>
+    <t>là</t>
+  </si>
+  <si>
+    <t>allá</t>
+  </si>
+  <si>
+    <t>allí</t>
+  </si>
+  <si>
+    <t>lì vicino</t>
+  </si>
+  <si>
+    <t>allí cerca</t>
+  </si>
+  <si>
+    <t>amable</t>
+  </si>
+  <si>
+    <t>giallo</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>gialla</t>
+  </si>
+  <si>
+    <t>amarilla</t>
+  </si>
+  <si>
+    <t>minaccia</t>
+  </si>
+  <si>
+    <t>amenaza</t>
+  </si>
+  <si>
+    <t>ambiente di lavoro</t>
+  </si>
+  <si>
+    <t>ambiente de trabajo</t>
+  </si>
+  <si>
+    <t>entrambi</t>
+  </si>
+  <si>
+    <t>ambos</t>
+  </si>
+  <si>
+    <t>entrambe</t>
+  </si>
+  <si>
+    <t>ambas</t>
+  </si>
+  <si>
+    <t>amico</t>
+  </si>
+  <si>
+    <t>amigo</t>
+  </si>
+  <si>
+    <t>amica</t>
+  </si>
+  <si>
+    <t>amiga</t>
+  </si>
+  <si>
+    <t>amico del cuore</t>
+  </si>
+  <si>
+    <t>amigo del alma</t>
+  </si>
+  <si>
+    <t>amica del cuore</t>
+  </si>
+  <si>
+    <t>amiga del alma</t>
+  </si>
+  <si>
+    <t>amicizia</t>
+  </si>
+  <si>
+    <t>amistad</t>
+  </si>
+  <si>
+    <t>amore</t>
+  </si>
+  <si>
+    <t>amor</t>
+  </si>
+  <si>
+    <t>ammortamento</t>
+  </si>
+  <si>
+    <t>amortización</t>
+  </si>
+  <si>
+    <t>amplificare</t>
+  </si>
+  <si>
+    <t>amplificar</t>
+  </si>
+  <si>
+    <t>ampio</t>
+  </si>
+  <si>
+    <t>amplio</t>
+  </si>
+  <si>
+    <t>ampia</t>
+  </si>
+  <si>
+    <t>amplia</t>
+  </si>
+  <si>
+    <t>analisi</t>
+  </si>
+  <si>
+    <t>análisis</t>
+  </si>
+  <si>
+    <t>analizzare</t>
+  </si>
+  <si>
+    <t>analizar</t>
+  </si>
+  <si>
+    <t>anziano</t>
+  </si>
+  <si>
+    <t>anciano</t>
+  </si>
+  <si>
+    <t>anziana</t>
+  </si>
+  <si>
+    <t>anciana</t>
+  </si>
+  <si>
+    <t>percorso</t>
+  </si>
+  <si>
+    <t>andadura</t>
+  </si>
+  <si>
+    <t>camminare</t>
+  </si>
+  <si>
+    <t>andar</t>
+  </si>
+  <si>
+    <t>allegato</t>
+  </si>
+  <si>
+    <t>anexo</t>
+  </si>
+  <si>
+    <t>animato; brillante</t>
+  </si>
+  <si>
+    <t>animado</t>
+  </si>
+  <si>
+    <t>animata; brillante</t>
+  </si>
+  <si>
+    <t>animada</t>
+  </si>
+  <si>
+    <t>ieri notte</t>
+  </si>
+  <si>
+    <t>anoche</t>
+  </si>
+  <si>
+    <t>ansia</t>
+  </si>
+  <si>
+    <t>ansiedad</t>
+  </si>
+  <si>
+    <t>antenato</t>
+  </si>
+  <si>
+    <t>antepasado</t>
+  </si>
+  <si>
+    <t>antenata</t>
+  </si>
+  <si>
+    <t>antepasada</t>
+  </si>
+  <si>
+    <t>prima</t>
+  </si>
+  <si>
+    <t>antes</t>
+  </si>
+  <si>
+    <t>prima di</t>
+  </si>
+  <si>
+    <t>antes de</t>
+  </si>
+  <si>
+    <t>anticipato</t>
+  </si>
+  <si>
+    <t>anticipado</t>
+  </si>
+  <si>
+    <t>anticipata</t>
+  </si>
+  <si>
+    <t>anticipada</t>
+  </si>
+  <si>
+    <t>no-global</t>
+  </si>
+  <si>
+    <t>antiglobalización</t>
+  </si>
+  <si>
+    <t>vecchio; antico</t>
+  </si>
+  <si>
+    <t>antiguo</t>
+  </si>
+  <si>
+    <t>vecchia; antica</t>
+  </si>
+  <si>
+    <t>antigua</t>
+  </si>
+  <si>
+    <t>annuale</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>annullato</t>
+  </si>
+  <si>
+    <t>anulado</t>
+  </si>
+  <si>
+    <t>annullata</t>
+  </si>
+  <si>
+    <t>anulada</t>
+  </si>
+  <si>
+    <t>annullare; sospendere</t>
+  </si>
+  <si>
+    <t>anular</t>
+  </si>
+  <si>
+    <t>annunciare</t>
+  </si>
+  <si>
+    <t>anunciar</t>
+  </si>
+  <si>
+    <t>anno</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>spegnere</t>
+  </si>
+  <si>
+    <t>apagar</t>
+  </si>
+  <si>
+    <t>apparecchio</t>
+  </si>
+  <si>
+    <t>aparato</t>
+  </si>
+  <si>
+    <t>comparire</t>
+  </si>
+  <si>
+    <t>aparecer</t>
+  </si>
+  <si>
+    <t>rappresentare</t>
+  </si>
+  <si>
+    <t>aparentar</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>appena</t>
+  </si>
+  <si>
+    <t>apenas</t>
+  </si>
+  <si>
+    <t>aperitivo</t>
+  </si>
+  <si>
+    <t>venire voglia</t>
+  </si>
+  <si>
+    <t>apetecer</t>
+  </si>
+  <si>
+    <t>posticipare</t>
+  </si>
+  <si>
+    <t>aplazar</t>
+  </si>
+  <si>
+    <t>diligente</t>
+  </si>
+  <si>
+    <t>aplicado</t>
+  </si>
+  <si>
+    <t>contributo</t>
+  </si>
+  <si>
+    <t>aportación</t>
+  </si>
+  <si>
+    <t>contribuire</t>
+  </si>
+  <si>
+    <t>aportar</t>
+  </si>
+  <si>
+    <t>scommettere; puntare</t>
+  </si>
+  <si>
+    <t>apostar</t>
+  </si>
+  <si>
+    <t>appoggiare</t>
+  </si>
+  <si>
+    <t>apoyar</t>
+  </si>
+  <si>
+    <t>appoggiato</t>
+  </si>
+  <si>
+    <t>apoyado</t>
+  </si>
+  <si>
+    <t>appoggiata</t>
+  </si>
+  <si>
+    <t>apoyada</t>
+  </si>
+  <si>
+    <t>apprezzato</t>
+  </si>
+  <si>
+    <t>apreciado</t>
+  </si>
+  <si>
+    <t>apprezzata</t>
+  </si>
+  <si>
+    <t>apreciada</t>
+  </si>
+  <si>
+    <t>apprezzare</t>
+  </si>
+  <si>
+    <t>apreciar</t>
+  </si>
+  <si>
+    <t>apprendistato; apprendimento</t>
+  </si>
+  <si>
+    <t>aprendizaje</t>
+  </si>
+  <si>
+    <t>stringere; schiacciare; farsi sentire</t>
+  </si>
+  <si>
+    <t>apretar</t>
+  </si>
+  <si>
+    <t>stretta di mani</t>
+  </si>
+  <si>
+    <t>apretón de manos</t>
+  </si>
+  <si>
+    <t>essere promosso; approvare</t>
+  </si>
+  <si>
+    <t>aprobar</t>
+  </si>
+  <si>
+    <t>approfittare</t>
+  </si>
+  <si>
+    <t>aprovechar</t>
+  </si>
+  <si>
+    <t>capacità</t>
+  </si>
+  <si>
+    <t>aptitudes</t>
+  </si>
+  <si>
+    <t>aitante</t>
+  </si>
+  <si>
+    <t>apuesto</t>
+  </si>
+  <si>
+    <t>appunto</t>
+  </si>
+  <si>
+    <t>apunte</t>
+  </si>
+  <si>
+    <t>guaio; problema</t>
+  </si>
+  <si>
+    <t>apuro</t>
+  </si>
+  <si>
+    <t>aquí</t>
+  </si>
+  <si>
+    <t>albero</t>
+  </si>
+  <si>
+    <t>árbol</t>
+  </si>
+  <si>
+    <t>schedario</t>
+  </si>
+  <si>
+    <t>archivador</t>
+  </si>
+  <si>
+    <t>aggiustare</t>
+  </si>
+  <si>
+    <t>arreglar</t>
+  </si>
+  <si>
+    <t>leasing finanziario</t>
+  </si>
+  <si>
+    <t>arrendamiento financiero</t>
+  </si>
+  <si>
+    <t>pentirsi</t>
+  </si>
+  <si>
+    <t>arrepentirse</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>arriba</t>
+  </si>
+  <si>
+    <t>accostarsi; avvicinarsi</t>
+  </si>
+  <si>
+    <t>arrimarse</t>
+  </si>
+  <si>
+    <t>stropicciato</t>
+  </si>
+  <si>
+    <t>arrugado</t>
+  </si>
+  <si>
+    <t>stropicciata</t>
+  </si>
+  <si>
+    <t>arrugada</t>
+  </si>
+  <si>
+    <t>rovinato; andato in rovina</t>
+  </si>
+  <si>
+    <t>arruinado</t>
+  </si>
+  <si>
+    <t>rovinata; andata in rovina</t>
+  </si>
+  <si>
+    <t>arruinada</t>
+  </si>
+  <si>
+    <t>rovinarsi</t>
+  </si>
+  <si>
+    <t>arruinarse</t>
+  </si>
+  <si>
+    <t>artigianato</t>
+  </si>
+  <si>
+    <t>artesanía</t>
+  </si>
+  <si>
+    <t>articolo</t>
+  </si>
+  <si>
+    <t>artículo</t>
+  </si>
+  <si>
+    <t>stipendiato</t>
+  </si>
+  <si>
+    <t>asalariado</t>
+  </si>
+  <si>
+    <t>stipendiata</t>
+  </si>
+  <si>
+    <t>asalariada</t>
+  </si>
+  <si>
+    <t>salire</t>
+  </si>
+  <si>
+    <t>ascender</t>
+  </si>
+  <si>
+    <t>promozione; aumento di categoria; salita</t>
+  </si>
+  <si>
+    <t>ascenso</t>
+  </si>
+  <si>
+    <t>ascensore</t>
+  </si>
+  <si>
+    <t>ascensor</t>
+  </si>
+  <si>
+    <t>assicurare</t>
+  </si>
+  <si>
+    <t>asegurar</t>
+  </si>
+  <si>
+    <t>assenso</t>
+  </si>
+  <si>
+    <t>asentimiento</t>
+  </si>
+  <si>
+    <t>assassino</t>
+  </si>
+  <si>
+    <t>asesino</t>
+  </si>
+  <si>
+    <t>assassina</t>
+  </si>
+  <si>
+    <t>asesina</t>
+  </si>
+  <si>
+    <t>commercialista</t>
+  </si>
+  <si>
+    <t>asesor fiscal</t>
+  </si>
+  <si>
+    <t>consulenza</t>
+  </si>
+  <si>
+    <t>asesoramiento</t>
+  </si>
+  <si>
+    <t>così; in questo modo</t>
+  </si>
+  <si>
+    <t>así</t>
+  </si>
+  <si>
+    <t>così come</t>
+  </si>
+  <si>
+    <t>así como</t>
+  </si>
+  <si>
+    <t>pertanto</t>
+  </si>
+  <si>
+    <t>así que</t>
+  </si>
+  <si>
+    <t>assegnazione</t>
+  </si>
+  <si>
+    <t>asignación</t>
+  </si>
+  <si>
+    <t>materia</t>
+  </si>
+  <si>
+    <t>asignatura</t>
+  </si>
+  <si>
+    <t>asimismo</t>
+  </si>
+  <si>
+    <t>assistere</t>
+  </si>
+  <si>
+    <t>asistir</t>
+  </si>
+  <si>
+    <t>aspirare</t>
+  </si>
+  <si>
+    <t>aspirar</t>
+  </si>
+  <si>
+    <t>astrologia</t>
+  </si>
+  <si>
+    <t>astrología</t>
+  </si>
+  <si>
+    <t>faccenda; vicenda; affare</t>
+  </si>
+  <si>
+    <t>asunto</t>
+  </si>
+  <si>
+    <t>spaventare</t>
+  </si>
+  <si>
+    <t>asustar</t>
+  </si>
+  <si>
+    <t>spaventarsi</t>
+  </si>
+  <si>
+    <t>asustarse</t>
+  </si>
+  <si>
+    <t>legato; allacciato</t>
+  </si>
+  <si>
+    <t>atado</t>
+  </si>
+  <si>
+    <t>legata; allacciata</t>
+  </si>
+  <si>
+    <t>atada</t>
+  </si>
+  <si>
+    <t>legare</t>
+  </si>
+  <si>
+    <t>atar</t>
+  </si>
+  <si>
+    <t>assistenza specialistica</t>
+  </si>
+  <si>
+    <t>atención especializada</t>
+  </si>
+  <si>
+    <t>assistenza primaria</t>
+  </si>
+  <si>
+    <t>atención primaria</t>
+  </si>
+  <si>
+    <t>attentamente</t>
+  </si>
+  <si>
+    <t>atentamente</t>
+  </si>
+  <si>
+    <t>attento</t>
+  </si>
+  <si>
+    <t>atento</t>
+  </si>
+  <si>
+    <t>attenta</t>
+  </si>
+  <si>
+    <t>atenta</t>
+  </si>
+  <si>
+    <t>intimorire</t>
+  </si>
+  <si>
+    <t>aterrar</t>
+  </si>
+  <si>
+    <t>attico</t>
+  </si>
+  <si>
+    <t>ático</t>
+  </si>
+  <si>
+    <t>attraente</t>
+  </si>
+  <si>
+    <t>atractivo</t>
+  </si>
+  <si>
+    <t>attrarre</t>
+  </si>
+  <si>
+    <t>atraer</t>
+  </si>
+  <si>
+    <t>tribunale</t>
+  </si>
+  <si>
+    <t>audencia provincial</t>
+  </si>
+  <si>
+    <t>aula</t>
+  </si>
+  <si>
+    <t>aumento</t>
+  </si>
+  <si>
+    <t>aumento di stipendio</t>
+  </si>
+  <si>
+    <t>aumento de sueldo</t>
+  </si>
+  <si>
+    <t>ancora</t>
+  </si>
+  <si>
+    <t>aún</t>
+  </si>
+  <si>
+    <t>persino</t>
+  </si>
+  <si>
+    <t>aun</t>
+  </si>
+  <si>
+    <t>autobus; pullman</t>
+  </si>
+  <si>
+    <t>autobús</t>
+  </si>
+  <si>
+    <t>autore</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>autrice</t>
+  </si>
+  <si>
+    <t>autora</t>
+  </si>
+  <si>
+    <t>autoritario</t>
+  </si>
+  <si>
+    <t>autoritaria</t>
+  </si>
+  <si>
+    <t>fare vergognare qualcuno</t>
+  </si>
+  <si>
+    <t>avergonzar</t>
+  </si>
+  <si>
+    <t>vergognarsi</t>
+  </si>
+  <si>
+    <t>avergonzarse</t>
+  </si>
+  <si>
+    <t>guasto; avaria</t>
+  </si>
+  <si>
+    <t>avería</t>
+  </si>
+  <si>
+    <t>aereo</t>
+  </si>
+  <si>
+    <t>avión</t>
+  </si>
+  <si>
+    <t>ieri</t>
+  </si>
+  <si>
+    <t>ayer</t>
+  </si>
+  <si>
+    <t>aiuto</t>
+  </si>
+  <si>
+    <t>ayuda</t>
+  </si>
+  <si>
+    <t>aiutare</t>
+  </si>
+  <si>
+    <t>ayudar</t>
+  </si>
+  <si>
+    <t>comune</t>
+  </si>
+  <si>
+    <t>ayuntamiento</t>
+  </si>
+  <si>
+    <t>avventura</t>
+  </si>
+  <si>
+    <t>aventura</t>
+  </si>
+  <si>
+    <t>velina</t>
+  </si>
+  <si>
+    <t>azafata de televisión</t>
+  </si>
+  <si>
+    <t>hostess di congressi</t>
+  </si>
+  <si>
+    <t>azafata de congresos</t>
+  </si>
+  <si>
+    <t>hostess di volo</t>
+  </si>
+  <si>
+    <t>azafato</t>
+  </si>
+  <si>
+    <t>zucchero</t>
+  </si>
+  <si>
+    <t>azúcar</t>
+  </si>
+  <si>
+    <t>azzurro; blu</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>studi di scuola superiore</t>
+  </si>
+  <si>
+    <t>bachiller</t>
+  </si>
+  <si>
+    <t>ballo</t>
+  </si>
+  <si>
+    <t>baile</t>
+  </si>
+  <si>
+    <t>scendere; diminuire</t>
+  </si>
+  <si>
+    <t>bajar</t>
+  </si>
+  <si>
+    <t>basso</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>bassa</t>
+  </si>
+  <si>
+    <t>baja</t>
+  </si>
+  <si>
+    <t>sotto controllo</t>
+  </si>
+  <si>
+    <t>bajo control</t>
+  </si>
+  <si>
+    <t>sotto cauzione</t>
+  </si>
+  <si>
+    <t>bajo fianza</t>
+  </si>
+  <si>
+    <t>sotto terra</t>
+  </si>
+  <si>
+    <t>bajo tierra</t>
+  </si>
+  <si>
+    <t>pallone</t>
+  </si>
+  <si>
+    <t>balón</t>
+  </si>
+  <si>
+    <t>bambù</t>
+  </si>
+  <si>
+    <t>bambú</t>
+  </si>
+  <si>
+    <t>banca</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>fare il bagno</t>
+  </si>
+  <si>
+    <t>bañar</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>barba</t>
+  </si>
+  <si>
+    <t>barca</t>
+  </si>
+  <si>
+    <t>barco</t>
+  </si>
+  <si>
+    <t>bancone del bar; sbarra; unità di misura del burro; pane</t>
+  </si>
+  <si>
+    <t>barra</t>
+  </si>
+  <si>
+    <t>quartiere</t>
+  </si>
+  <si>
+    <t>barrio</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>base regolatrice</t>
+  </si>
+  <si>
+    <t>base reguladora</t>
+  </si>
+  <si>
+    <t>abbastanza; parecchio</t>
+  </si>
+  <si>
+    <t>bastante</t>
+  </si>
+  <si>
+    <t>battaglia</t>
+  </si>
+  <si>
+    <t>batalla</t>
+  </si>
+  <si>
+    <t>battere</t>
+  </si>
+  <si>
+    <t>batir</t>
+  </si>
+  <si>
+    <t>baule</t>
+  </si>
+  <si>
+    <t>baúl</t>
+  </si>
+  <si>
+    <t>bere</t>
+  </si>
+  <si>
+    <t>beber</t>
+  </si>
+  <si>
+    <t>borsa di studio</t>
+  </si>
+  <si>
+    <t>beca</t>
+  </si>
+  <si>
+    <t>assegno di ricerca</t>
+  </si>
+  <si>
+    <t>beca de investigación</t>
+  </si>
+  <si>
+    <t>borsista; stagista</t>
+  </si>
+  <si>
+    <t>becario</t>
+  </si>
+  <si>
+    <t>beneficio; vantaggio</t>
+  </si>
+  <si>
+    <t>beneficio</t>
+  </si>
+  <si>
+    <t>benefici sociali</t>
+  </si>
+  <si>
+    <t>beneficios sociales</t>
+  </si>
+  <si>
+    <t>mountain bike</t>
+  </si>
+  <si>
+    <t>bicicleta de montaña</t>
+  </si>
+  <si>
+    <t>bene</t>
+  </si>
+  <si>
+    <t>bien</t>
+  </si>
+  <si>
+    <t>benvenuto</t>
+  </si>
+  <si>
+    <t>bienvenido</t>
+  </si>
+  <si>
+    <t>benvenuta</t>
+  </si>
+  <si>
+    <t>bienvenida</t>
+  </si>
+  <si>
+    <t>biglietto; banconota</t>
+  </si>
+  <si>
+    <t>billete</t>
+  </si>
+  <si>
+    <t>bianco</t>
+  </si>
+  <si>
+    <t>blanco</t>
+  </si>
+  <si>
+    <t>bianca</t>
+  </si>
+  <si>
+    <t>blanca</t>
+  </si>
+  <si>
+    <t>bocca</t>
+  </si>
+  <si>
+    <t>boca</t>
+  </si>
+  <si>
+    <t>matrimonio</t>
+  </si>
+  <si>
+    <t>boda</t>
+  </si>
+  <si>
+    <t>penna</t>
+  </si>
+  <si>
+    <t>bolígrafo</t>
+  </si>
+  <si>
+    <t>borsa</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>sacchetto di plastica</t>
+  </si>
+  <si>
+    <t>bolsa de plástico</t>
+  </si>
+  <si>
+    <t>borsa; borsone</t>
+  </si>
+  <si>
+    <t>bolso</t>
+  </si>
+  <si>
+    <t>bombardare</t>
+  </si>
+  <si>
+    <t>bombardear</t>
+  </si>
+  <si>
+    <t>bontà</t>
+  </si>
+  <si>
+    <t>bondad</t>
+  </si>
+  <si>
+    <t>bonifica</t>
+  </si>
+  <si>
+    <t>bonificación</t>
+  </si>
+  <si>
+    <t>cancellare</t>
+  </si>
+  <si>
+    <t>borrar</t>
+  </si>
+  <si>
+    <t>bottiglia</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t>scherzo</t>
+  </si>
+  <si>
+    <t>broma</t>
+  </si>
+  <si>
+    <t>spiritoso</t>
+  </si>
+  <si>
+    <t>bromista</t>
+  </si>
+  <si>
+    <t>spiritosa</t>
+  </si>
+  <si>
+    <t>buona notte</t>
+  </si>
+  <si>
+    <t>buenas noches</t>
+  </si>
+  <si>
+    <t>buon pomeriggio; buona sera</t>
+  </si>
+  <si>
+    <t>buenas tardes</t>
+  </si>
+  <si>
+    <t>buono; bravo; di qualità</t>
+  </si>
+  <si>
+    <t>bueno</t>
+  </si>
+  <si>
+    <t>buona; brava; di qualità</t>
+  </si>
+  <si>
+    <t>beuna</t>
+  </si>
+  <si>
+    <t>beh</t>
+  </si>
+  <si>
+    <t>buongiorno</t>
+  </si>
+  <si>
+    <t>buenos días</t>
+  </si>
+  <si>
+    <t>cercare</t>
+  </si>
+  <si>
+    <t>buscar</t>
+  </si>
+  <si>
+    <t>ricerca</t>
+  </si>
+  <si>
+    <t>búsqueda</t>
+  </si>
+  <si>
+    <t>starci</t>
+  </si>
+  <si>
+    <t>caber</t>
+  </si>
+  <si>
+    <t>testa</t>
+  </si>
+  <si>
+    <t>cabeza</t>
+  </si>
+  <si>
+    <t>cada</t>
+  </si>
+  <si>
+    <t>ciascuno; ciascuna</t>
+  </si>
+  <si>
+    <t>cada cual</t>
+  </si>
+  <si>
+    <t>ogni volta che</t>
+  </si>
+  <si>
+    <t>cada vez que</t>
+  </si>
+  <si>
+    <t>scadere</t>
+  </si>
+  <si>
+    <t>caducar</t>
+  </si>
+  <si>
+    <t>cadere; capire</t>
+  </si>
+  <si>
+    <t>caer</t>
+  </si>
+  <si>
+    <t>caffè</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>caffè e latte</t>
+  </si>
+  <si>
+    <t>café con leche</t>
+  </si>
+  <si>
+    <t>cassa di risparmio</t>
+  </si>
+  <si>
+    <t>caja de ahorros</t>
+  </si>
+  <si>
+    <t>cassettiera</t>
+  </si>
+  <si>
+    <t>cajonera</t>
+  </si>
+  <si>
+    <t>riscaldare</t>
+  </si>
+  <si>
+    <t>calentar</t>
+  </si>
+  <si>
+    <t>calcolatore</t>
+  </si>
+  <si>
+    <t>calculador</t>
+  </si>
+  <si>
+    <t>calcolatrice</t>
+  </si>
+  <si>
+    <t>calculadora</t>
+  </si>
+  <si>
+    <t>qualità</t>
+  </si>
+  <si>
+    <t>calidad</t>
+  </si>
+  <si>
+    <t>qualità di vita</t>
+  </si>
+  <si>
+    <t>calidad de vida</t>
+  </si>
+  <si>
+    <t>qualifica; voto</t>
+  </si>
+  <si>
+    <t>calificación</t>
+  </si>
+  <si>
+    <t>calma</t>
+  </si>
+  <si>
+    <t>calmo</t>
+  </si>
+  <si>
+    <t>calmado</t>
+  </si>
+  <si>
+    <t>zitto; riservato</t>
+  </si>
+  <si>
+    <t>callado</t>
+  </si>
+  <si>
+    <t>zittire</t>
+  </si>
+  <si>
+    <t>callar</t>
+  </si>
+  <si>
+    <t>strada; via</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>caldo</t>
+  </si>
+  <si>
+    <t>calor</t>
+  </si>
+  <si>
+    <t>calvo</t>
+  </si>
+  <si>
+    <t>letto</t>
+  </si>
+  <si>
+    <t>cama</t>
+  </si>
+  <si>
+    <t>cameriere</t>
+  </si>
+  <si>
+    <t>camarero</t>
+  </si>
+  <si>
+    <t>cambiare</t>
+  </si>
+  <si>
+    <t>cambiar</t>
+  </si>
+  <si>
+    <t>cambiamento</t>
+  </si>
+  <si>
+    <t>cambio</t>
+  </si>
+  <si>
+    <t>t-shirt; maglietta intima</t>
+  </si>
+  <si>
+    <t>camiseta</t>
+  </si>
+  <si>
+    <t>campeggio</t>
+  </si>
+  <si>
+    <t>campamento</t>
+  </si>
+  <si>
+    <t>campagna di produzione</t>
+  </si>
+  <si>
+    <t>campaña de producción</t>
+  </si>
+  <si>
+    <t>campione</t>
+  </si>
+  <si>
+    <t>campeón</t>
+  </si>
+  <si>
+    <t>campionessa</t>
+  </si>
+  <si>
+    <t>campeona</t>
+  </si>
+  <si>
+    <t>campo; ambito</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>rete di vendita</t>
+  </si>
+  <si>
+    <t>canal de venta</t>
+  </si>
+  <si>
+    <t>cancro</t>
+  </si>
+  <si>
+    <t>cáncer</t>
+  </si>
+  <si>
+    <t>canzone</t>
+  </si>
+  <si>
+    <t>canción</t>
+  </si>
+  <si>
+    <t>candidato</t>
+  </si>
+  <si>
+    <t>baby sitter</t>
+  </si>
+  <si>
+    <t>canguro</t>
+  </si>
+  <si>
+    <t>brizzolato</t>
+  </si>
+  <si>
+    <t>canoso</t>
+  </si>
+  <si>
+    <t>stanco</t>
+  </si>
+  <si>
+    <t>cansado</t>
+  </si>
+  <si>
+    <t>stancarsi</t>
+  </si>
+  <si>
+    <t>cansarse</t>
+  </si>
+  <si>
+    <t>cantare</t>
+  </si>
+  <si>
+    <t>cantar</t>
+  </si>
+  <si>
+    <t>dirgliene quattro</t>
+  </si>
+  <si>
+    <t>cantar las cuarenta a alguien</t>
+  </si>
+  <si>
+    <t>borraccia</t>
+  </si>
+  <si>
+    <t>cantimplora</t>
+  </si>
+  <si>
+    <t>capace</t>
+  </si>
+  <si>
+    <t>capaz</t>
+  </si>
+  <si>
+    <t>capitale</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>capitolo</t>
+  </si>
+  <si>
+    <t>capitulo</t>
+  </si>
+  <si>
+    <t>caramella</t>
+  </si>
+  <si>
+    <t>caramelo</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>carga</t>
+  </si>
+  <si>
+    <t>caricare</t>
+  </si>
+  <si>
+    <t>cargar</t>
+  </si>
+  <si>
+    <t>carica; incarico</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>affettuoso</t>
+  </si>
+  <si>
+    <t>cariñoso</t>
+  </si>
+  <si>
+    <t>con carisma; carismatico</t>
+  </si>
+  <si>
+    <t>carismático</t>
+  </si>
+  <si>
+    <t>carta d'identità</t>
+  </si>
+  <si>
+    <t>carné de identidad</t>
+  </si>
+  <si>
+    <t>costoso</t>
+  </si>
+  <si>
+    <t>caro</t>
+  </si>
+  <si>
+    <t>cartella</t>
+  </si>
+  <si>
+    <t>carpeta</t>
+  </si>
+  <si>
+    <t>studi universitari</t>
+  </si>
+  <si>
+    <t>carrera universitaria</t>
+  </si>
+  <si>
+    <t>lettera</t>
+  </si>
+  <si>
+    <t>carta</t>
+  </si>
+  <si>
+    <t>lettera di delega</t>
+  </si>
+  <si>
+    <t>carta de delegación</t>
+  </si>
+  <si>
+    <t>lettera di presentazione</t>
+  </si>
+  <si>
+    <t>carta de presentación</t>
+  </si>
+  <si>
+    <t>portafoglio</t>
+  </si>
+  <si>
+    <t>cartera</t>
+  </si>
+  <si>
+    <t>portafoglio di clienti</t>
+  </si>
+  <si>
+    <t>cartera de clientes</t>
+  </si>
+  <si>
+    <t>portafoglio di moneta estera</t>
+  </si>
+  <si>
+    <t>cartera de divisas extranjeras</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>sede centrale</t>
+  </si>
+  <si>
+    <t>casa madre; casa matriz</t>
+  </si>
+  <si>
+    <t>casa rurale</t>
+  </si>
+  <si>
+    <t>casa rural</t>
+  </si>
+  <si>
+    <t>sposato</t>
+  </si>
+  <si>
+    <t>casado</t>
+  </si>
+  <si>
+    <t>sposarsi</t>
+  </si>
+  <si>
+    <t>casarse</t>
+  </si>
+  <si>
+    <t>sposarsi in abito bianco e in chiesa</t>
+  </si>
+  <si>
+    <t>casarse de blanco y por la iglesia</t>
+  </si>
+  <si>
+    <t>quasi</t>
+  </si>
+  <si>
+    <t>casi</t>
+  </si>
+  <si>
+    <t>punire; penalizzare</t>
+  </si>
+  <si>
+    <t>castigar</t>
+  </si>
+  <si>
+    <t>combinazione</t>
+  </si>
+  <si>
+    <t>casualidad</t>
+  </si>
+  <si>
+    <t>cascata</t>
+  </si>
+  <si>
+    <t>catarata</t>
+  </si>
+  <si>
+    <t>duomo; cattedrale</t>
+  </si>
+  <si>
+    <t>catedral</t>
+  </si>
+  <si>
+    <t>cattolico</t>
+  </si>
+  <si>
+    <t>católico</t>
+  </si>
+  <si>
+    <t>prigionia</t>
+  </si>
+  <si>
+    <t>cautiverio</t>
+  </si>
+  <si>
+    <t>cacciatore di teste</t>
+  </si>
+  <si>
+    <t>cazatalentos</t>
+  </si>
+  <si>
+    <t>cipolla</t>
+  </si>
+  <si>
+    <t>cebolla</t>
+  </si>
+  <si>
+    <t>tenere; avere luogo; festeggiare</t>
+  </si>
+  <si>
+    <t>celebrar</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>cenare</t>
+  </si>
+  <si>
+    <t>cenar</t>
+  </si>
+  <si>
+    <t>cenere</t>
+  </si>
+  <si>
+    <t>ceniza</t>
+  </si>
+  <si>
+    <t>centesimo</t>
+  </si>
+  <si>
+    <t>centésimo</t>
+  </si>
+  <si>
+    <t>centrale</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>centro benessere; centro medico</t>
+  </si>
+  <si>
+    <t>centro de salud</t>
+  </si>
+  <si>
+    <t>limitarsi</t>
+  </si>
+  <si>
+    <t>cenirse</t>
+  </si>
+  <si>
+    <t>spazzolare</t>
+  </si>
+  <si>
+    <t>cepillar</t>
+  </si>
+  <si>
+    <t>spazzolarsi i capelli</t>
+  </si>
+  <si>
+    <t>cepillarse el pelo</t>
+  </si>
+  <si>
+    <t>vicino</t>
+  </si>
+  <si>
+    <t>cerca</t>
+  </si>
+  <si>
+    <t>chiuso</t>
+  </si>
+  <si>
+    <t>cerrado</t>
+  </si>
+  <si>
+    <t>chiudere</t>
+  </si>
+  <si>
+    <t>cerrar</t>
+  </si>
+  <si>
+    <t>certificato</t>
+  </si>
+  <si>
+    <t>certificado</t>
+  </si>
+  <si>
+    <t>birra</t>
+  </si>
+  <si>
+    <t>cerveza</t>
+  </si>
+  <si>
+    <t>paniere di dollari</t>
+  </si>
+  <si>
+    <t>cesta de dólares</t>
+  </si>
+  <si>
+    <t>ciclico</t>
+  </si>
+  <si>
+    <t>cíclico</t>
+  </si>
+  <si>
+    <t>cielo</t>
+  </si>
+  <si>
+    <t>chiusura</t>
+  </si>
+  <si>
+    <t>cierre</t>
+  </si>
+  <si>
+    <t>cinema</t>
+  </si>
+  <si>
+    <t>cine</t>
+  </si>
+  <si>
+    <t>cintura</t>
+  </si>
+  <si>
+    <t>cinturón</t>
+  </si>
+  <si>
+    <t>cintura di sicurezza</t>
+  </si>
+  <si>
+    <t>cinturón de seguridad</t>
+  </si>
+  <si>
+    <t>circostanza</t>
+  </si>
+  <si>
+    <t>circunstancia</t>
+  </si>
+  <si>
+    <t>appuntamento</t>
+  </si>
+  <si>
+    <t>cita</t>
+  </si>
+  <si>
+    <t>città</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>cittadinanza; popolazione</t>
+  </si>
+  <si>
+    <t>ciudadania</t>
+  </si>
+  <si>
+    <t>chiaro</t>
+  </si>
+  <si>
+    <t>claro</t>
+  </si>
+  <si>
+    <t>certo! certamente!</t>
+  </si>
+  <si>
+    <t>¡claro!</t>
+  </si>
+  <si>
+    <t>lezione; corso</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>classico</t>
+  </si>
+  <si>
+    <t>clásico</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>clinica dentale</t>
+  </si>
+  <si>
+    <t>clínica dental</t>
+  </si>
+  <si>
+    <t>società di calcio</t>
+  </si>
+  <si>
+    <t>club de futbol</t>
+  </si>
+  <si>
+    <t>codardo</t>
+  </si>
+  <si>
+    <t>cobarde</t>
+  </si>
+  <si>
+    <t>coprire; proteggere</t>
+  </si>
+  <si>
+    <t>cobijar</t>
+  </si>
+  <si>
+    <t>riscuotere; guadagnare</t>
+  </si>
+  <si>
+    <t>cobrar</t>
+  </si>
+  <si>
+    <t>riscossione</t>
+  </si>
+  <si>
+    <t>cobro</t>
+  </si>
+  <si>
+    <t>recupero crediti</t>
+  </si>
+  <si>
+    <t>cobro de impagados</t>
+  </si>
+  <si>
+    <t>cuocere</t>
+  </si>
+  <si>
+    <t>cocer</t>
+  </si>
+  <si>
+    <t>automobile</t>
+  </si>
+  <si>
+    <t>coche</t>
+  </si>
+  <si>
+    <t>cucina</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
+    <t>cucinare</t>
+  </si>
+  <si>
+    <t>cocinar</t>
+  </si>
+  <si>
+    <t>cuoco</t>
+  </si>
+  <si>
+    <t>cocinero</t>
+  </si>
+  <si>
+    <t>frequentare persone</t>
+  </si>
+  <si>
+    <t>codearse</t>
+  </si>
+  <si>
+    <t>prendere</t>
+  </si>
+  <si>
+    <t>coger</t>
+  </si>
+  <si>
+    <t>impacciato</t>
+  </si>
+  <si>
+    <t>cohibido</t>
+  </si>
+  <si>
+    <t>coincidere</t>
+  </si>
+  <si>
+    <t>coincidir</t>
+  </si>
+  <si>
+    <t>collaborazione</t>
+  </si>
+  <si>
+    <t>colaboración</t>
+  </si>
+  <si>
+    <t>cotto</t>
+  </si>
+  <si>
+    <t>colado</t>
+  </si>
+  <si>
+    <t>raccolta</t>
+  </si>
+  <si>
+    <t>colección</t>
+  </si>
+  <si>
+    <t>collegio; scuola</t>
+  </si>
+  <si>
+    <t>colegio</t>
+  </si>
+  <si>
+    <t>collegio di avvocati</t>
+  </si>
+  <si>
+    <t>colegio de abogados</t>
+  </si>
+  <si>
+    <t>appendere</t>
+  </si>
+  <si>
+    <t>colgar</t>
+  </si>
+  <si>
+    <t>colore</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>collana</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>virgola</t>
+  </si>
+  <si>
+    <t>coma</t>
+  </si>
+  <si>
+    <t>combattere</t>
+  </si>
+  <si>
+    <t>combatir</t>
+  </si>
+  <si>
+    <t>mangiare</t>
+  </si>
+  <si>
+    <t>comer</t>
+  </si>
+  <si>
+    <t>commercio solidale</t>
+  </si>
+  <si>
+    <t>comercio justo</t>
+  </si>
+  <si>
+    <t>compito</t>
+  </si>
+  <si>
+    <t>cometido</t>
+  </si>
+  <si>
+    <t>pranzo</t>
+  </si>
+  <si>
+    <t>comida</t>
+  </si>
+  <si>
+    <t>inizio</t>
+  </si>
+  <si>
+    <t>comienzo</t>
+  </si>
+  <si>
+    <t>cumino</t>
+  </si>
+  <si>
+    <t>comino</t>
+  </si>
+  <si>
+    <t>compagno</t>
+  </si>
+  <si>
+    <t>compañero</t>
+  </si>
+  <si>
+    <t>collega di lavoro</t>
+  </si>
+  <si>
+    <t>compañero de trabajo</t>
+  </si>
+  <si>
+    <t>condividere</t>
+  </si>
+  <si>
+    <t>compartir</t>
+  </si>
+  <si>
+    <t>compasso</t>
+  </si>
+  <si>
+    <t>compás</t>
+  </si>
+  <si>
+    <t>concorrenza</t>
+  </si>
+  <si>
+    <t>competencia</t>
+  </si>
+  <si>
+    <t>concorrenza sleale</t>
+  </si>
+  <si>
+    <t>competencia desleal</t>
+  </si>
+  <si>
+    <t>compettere</t>
+  </si>
+  <si>
+    <t>competir</t>
+  </si>
+  <si>
+    <t>competitività</t>
+  </si>
+  <si>
+    <t>competitividad</t>
+  </si>
+  <si>
+    <t>complicato</t>
+  </si>
+  <si>
+    <t>complicado</t>
+  </si>
+  <si>
+    <t>complotto</t>
+  </si>
+  <si>
+    <t>complot</t>
+  </si>
+  <si>
+    <t>comportamento</t>
+  </si>
+  <si>
+    <t>comportamiento</t>
+  </si>
+  <si>
+    <t>acquisto; spesa</t>
+  </si>
+  <si>
+    <t>compra</t>
+  </si>
+  <si>
+    <t>acquirente</t>
+  </si>
+  <si>
+    <t>comprador</t>
+  </si>
+  <si>
+    <t>capire; includere</t>
+  </si>
+  <si>
+    <t>comprender</t>
+  </si>
+  <si>
+    <t>comprensivo</t>
+  </si>
+  <si>
+    <t>impegnato</t>
+  </si>
+  <si>
+    <t>comprometido</t>
+  </si>
+  <si>
+    <t>impegno</t>
+  </si>
+  <si>
+    <t>compromiso</t>
+  </si>
+  <si>
+    <t>común</t>
+  </si>
+  <si>
+    <t>comunicare</t>
+  </si>
+  <si>
+    <t>comunicar</t>
+  </si>
+  <si>
+    <t>condominio</t>
+  </si>
+  <si>
+    <t>comunidad de vecinos</t>
+  </si>
+  <si>
+    <t>concepire</t>
+  </si>
+  <si>
+    <t>concebir</t>
+  </si>
+  <si>
+    <t>riguardante</t>
+  </si>
+  <si>
+    <t>concerniente</t>
+  </si>
+  <si>
+    <t>riguardare</t>
+  </si>
+  <si>
+    <t>concernir</t>
+  </si>
+  <si>
+    <t>fissare un appuntamento</t>
+  </si>
+  <si>
+    <t>concertar una cita</t>
+  </si>
+  <si>
+    <t>specificare</t>
+  </si>
+  <si>
+    <t>concretar</t>
+  </si>
+  <si>
+    <t>conte</t>
+  </si>
+  <si>
+    <t>conde</t>
+  </si>
+  <si>
+    <t>condensare</t>
+  </si>
+  <si>
+    <t>condensar</t>
+  </si>
+  <si>
+    <t>arrendevole</t>
+  </si>
+  <si>
+    <t>condescendiente</t>
+  </si>
+  <si>
+    <t>condurre; guidare</t>
+  </si>
+  <si>
+    <t>conducir</t>
+  </si>
+  <si>
+    <t>allo scopo di</t>
+  </si>
+  <si>
+    <t>con el fin de</t>
+  </si>
+  <si>
+    <t>conferenza</t>
+  </si>
+  <si>
+    <t>conferencia</t>
+  </si>
+  <si>
+    <t>conferenza stampa</t>
+  </si>
+  <si>
+    <t>conferencia de prensa</t>
+  </si>
+  <si>
+    <t>confessare</t>
+  </si>
+  <si>
+    <t>confesar</t>
+  </si>
+  <si>
+    <t>fiducia; confidenza</t>
+  </si>
+  <si>
+    <t>confianza</t>
+  </si>
+  <si>
+    <t>affidare</t>
+  </si>
+  <si>
+    <t>confiar</t>
+  </si>
+  <si>
+    <t>confidenza</t>
+  </si>
+  <si>
+    <t>confidencia</t>
+  </si>
+  <si>
+    <t>confermare; dare la conferma</t>
+  </si>
+  <si>
+    <t>confirmar</t>
+  </si>
+  <si>
+    <t>conflitto</t>
+  </si>
+  <si>
+    <t>conflicto</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>congelador</t>
+  </si>
+  <si>
+    <t>congresso; convegno</t>
+  </si>
+  <si>
+    <t>congreso</t>
+  </si>
+  <si>
+    <t>comportare</t>
+  </si>
+  <si>
+    <t>conllevar</t>
+  </si>
+  <si>
+    <t>con me</t>
+  </si>
+  <si>
+    <t>conmigo</t>
+  </si>
+  <si>
+    <t>conoscere</t>
+  </si>
+  <si>
+    <t>conocer</t>
+  </si>
+  <si>
+    <t>conoscersi</t>
+  </si>
+  <si>
+    <t>conocerse</t>
+  </si>
+  <si>
+    <t>conosciuto; conoscente</t>
+  </si>
+  <si>
+    <t>conocido</t>
+  </si>
+  <si>
+    <t>conoscenze</t>
+  </si>
+  <si>
+    <t>conocimientos</t>
+  </si>
+  <si>
+    <t>conoscenze acquisite</t>
+  </si>
+  <si>
+    <t>conocimientos adquiridos</t>
+  </si>
+  <si>
+    <t>consapevole</t>
+  </si>
+  <si>
+    <t>consciente</t>
+  </si>
+  <si>
+    <t>consecuzione; riuscita</t>
+  </si>
+  <si>
+    <t>consecución</t>
+  </si>
+  <si>
+    <t>ottenere; riuscire a</t>
+  </si>
+  <si>
+    <t>conseguir</t>
+  </si>
+  <si>
+    <t>amministratore delegato</t>
+  </si>
+  <si>
+    <t>consejero delegado</t>
+  </si>
+  <si>
+    <t>consiglio</t>
+  </si>
+  <si>
+    <t>consejo</t>
+  </si>
+  <si>
+    <t>consiglio di amministrazione</t>
+  </si>
+  <si>
+    <t>consejo de administración</t>
+  </si>
+  <si>
+    <t>usciere</t>
+  </si>
+  <si>
+    <t>conserje</t>
+  </si>
+  <si>
+    <t>conservare</t>
+  </si>
+  <si>
+    <t>conservar</t>
+  </si>
+  <si>
+    <t>considerare</t>
+  </si>
+  <si>
+    <t>considerar</t>
+  </si>
+  <si>
+    <t>ritenersi</t>
+  </si>
+  <si>
+    <t>considerarse</t>
+  </si>
+  <si>
+    <t>deposito bagagli</t>
+  </si>
+  <si>
+    <t>consigna</t>
+  </si>
+  <si>
+    <t>con sé</t>
+  </si>
+  <si>
+    <t>consigo</t>
+  </si>
+  <si>
+    <t>play station</t>
+  </si>
+  <si>
+    <t>consola</t>
+  </si>
+  <si>
+    <t>consolare; confortare</t>
+  </si>
+  <si>
+    <t>consolar</t>
+  </si>
+  <si>
+    <t>consolidamento</t>
+  </si>
+  <si>
+    <t>consolidación</t>
+  </si>
+  <si>
+    <t>perseveranza; impegno</t>
+  </si>
+  <si>
+    <t>constancia</t>
+  </si>
+  <si>
+    <t>rimanere costanza di qualcosa; risultare</t>
+  </si>
+  <si>
+    <t>constar</t>
+  </si>
+  <si>
+    <t>edilizia</t>
+  </si>
+  <si>
+    <t>construcción</t>
+  </si>
+  <si>
+    <t>costruire; edificare</t>
+  </si>
+  <si>
+    <t>construir</t>
+  </si>
+  <si>
+    <t>consumatore</t>
+  </si>
+  <si>
+    <t>consumidor</t>
+  </si>
+  <si>
+    <t>consumo</t>
+  </si>
+  <si>
+    <t>inquinamento</t>
+  </si>
+  <si>
+    <t>contaminación</t>
+  </si>
+  <si>
+    <t>raccontare; contare</t>
+  </si>
+  <si>
+    <t>contar</t>
+  </si>
+  <si>
+    <t>contare su qualcuno</t>
+  </si>
+  <si>
+    <t>contar con alguien</t>
+  </si>
+  <si>
+    <t>contenuto</t>
+  </si>
+  <si>
+    <t>contenido</t>
+  </si>
+  <si>
+    <t>contento; felice</t>
+  </si>
+  <si>
+    <t>contento</t>
+  </si>
+  <si>
+    <t>con te</t>
+  </si>
+  <si>
+    <t>contigo</t>
+  </si>
+  <si>
+    <t>in continuazione</t>
+  </si>
+  <si>
+    <t>continuamente</t>
+  </si>
+  <si>
+    <t>assunzione</t>
+  </si>
+  <si>
+    <t>contratación</t>
+  </si>
+  <si>
+    <t>contratto</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>contratto a tempo indeterminato</t>
+  </si>
+  <si>
+    <t>contrato de tempo indefinido</t>
+  </si>
+  <si>
+    <t>convegno collettivo</t>
+  </si>
+  <si>
+    <t>convenio colectivo</t>
+  </si>
+  <si>
+    <t>conversione</t>
+  </si>
+  <si>
+    <t>conversión</t>
+  </si>
+  <si>
+    <t>convertire</t>
+  </si>
+  <si>
+    <t>convertir</t>
+  </si>
+  <si>
+    <t>diventare</t>
+  </si>
+  <si>
+    <t>convertirse</t>
+  </si>
+  <si>
+    <t>coordinamento</t>
+  </si>
+  <si>
+    <t>coordinación</t>
+  </si>
+  <si>
+    <t>coordinatore</t>
+  </si>
+  <si>
+    <t>coordinador</t>
+  </si>
+  <si>
+    <t>copiare</t>
+  </si>
+  <si>
+    <t>copiar</t>
+  </si>
+  <si>
+    <t>cuore</t>
+  </si>
+  <si>
+    <t>corazón</t>
+  </si>
+  <si>
+    <t>cravatta</t>
+  </si>
+  <si>
+    <t>corbata</t>
+  </si>
+  <si>
+    <t>cordiale</t>
+  </si>
+  <si>
+    <t>cordial</t>
+  </si>
+  <si>
+    <t>correttezza</t>
+  </si>
+  <si>
+    <t>corrección</t>
+  </si>
+  <si>
+    <t>correggere</t>
+  </si>
+  <si>
+    <t>corregir</t>
+  </si>
+  <si>
+    <t>posta; messaggio di posta elettronica</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>posta elettronica</t>
+  </si>
+  <si>
+    <t>correo electrónico</t>
+  </si>
+  <si>
+    <t>correre</t>
+  </si>
+  <si>
+    <t>correr</t>
+  </si>
+  <si>
+    <t>corrispondere</t>
+  </si>
+  <si>
+    <t>corresponder</t>
+  </si>
+  <si>
+    <t>taglio</t>
+  </si>
+  <si>
+    <t>corte</t>
+  </si>
+  <si>
+    <t>parlamento</t>
+  </si>
+  <si>
+    <t>cortes generales</t>
+  </si>
+  <si>
+    <t>corto</t>
+  </si>
+  <si>
+    <t>cosa</t>
+  </si>
+  <si>
+    <t>costare</t>
+  </si>
+  <si>
+    <t>costar</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>coste</t>
+  </si>
+  <si>
+    <t>abitudine</t>
+  </si>
+  <si>
+    <t>costumbre</t>
+  </si>
+  <si>
+    <t>pettegolo</t>
+  </si>
+  <si>
+    <t>cotilla</t>
+  </si>
+  <si>
+    <t>pettegolezzo</t>
+  </si>
+  <si>
+    <t>cotilleo</t>
+  </si>
+  <si>
+    <t>quotazione</t>
+  </si>
+  <si>
+    <t>cotización</t>
+  </si>
+  <si>
+    <t>quotato; richiesto</t>
+  </si>
+  <si>
+    <t>cotizado</t>
+  </si>
+  <si>
+    <t>quotare; avere contributi</t>
+  </si>
+  <si>
+    <t>cotizar</t>
+  </si>
+  <si>
+    <t>creare</t>
+  </si>
+  <si>
+    <t>crear</t>
+  </si>
+  <si>
+    <t>essere fonte di problemi; piantare grane</t>
+  </si>
+  <si>
+    <t>crear conflictos</t>
+  </si>
+  <si>
+    <t>creditizio</t>
+  </si>
+  <si>
+    <t>crediticio</t>
+  </si>
+  <si>
+    <t>crediti insoluti</t>
+  </si>
+  <si>
+    <t>crédito impagado</t>
+  </si>
+  <si>
+    <t>credere</t>
+  </si>
+  <si>
+    <t>creer</t>
+  </si>
+  <si>
+    <t>montato</t>
+  </si>
+  <si>
+    <t>creido</t>
+  </si>
+  <si>
+    <t>delitto</t>
+  </si>
+  <si>
+    <t>crimen</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>criticare</t>
+  </si>
+  <si>
+    <t>criticar</t>
+  </si>
+  <si>
+    <t>incrocio</t>
+  </si>
+  <si>
+    <t>cruce</t>
+  </si>
+  <si>
+    <t>attraversare; incrociare</t>
+  </si>
+  <si>
+    <t>cruzar</t>
+  </si>
+  <si>
+    <t>quarto; stanza</t>
+  </si>
+  <si>
+    <t>cuarto</t>
+  </si>
+  <si>
+    <t>coprire</t>
+  </si>
+  <si>
+    <t>cubrir</t>
+  </si>
+  <si>
+    <t>coprire un posto di lavoro</t>
+  </si>
+  <si>
+    <t>cubrir un puesto de trabajo</t>
+  </si>
+  <si>
+    <t>coltello</t>
+  </si>
+  <si>
+    <t>cuchillo</t>
+  </si>
+  <si>
+    <t>racconto; fiaba</t>
+  </si>
+  <si>
+    <t>cuento</t>
+  </si>
+  <si>
+    <t>corpo</t>
+  </si>
+  <si>
+    <t>cuerpo</t>
+  </si>
+  <si>
+    <t>cura; attenzione</t>
+  </si>
+  <si>
+    <t>cuidado</t>
+  </si>
+  <si>
+    <t>compleanno</t>
+  </si>
+  <si>
+    <t>cumpleaños</t>
+  </si>
+  <si>
+    <t>compiere; portare a compimento</t>
+  </si>
+  <si>
+    <t>cumplir</t>
+  </si>
+  <si>
+    <t>compiere anni</t>
+  </si>
+  <si>
+    <t>cumplir años</t>
+  </si>
+  <si>
+    <t>fare il proprio dovere</t>
+  </si>
+  <si>
+    <t>cumplir con su deber</t>
+  </si>
+  <si>
+    <t>quota</t>
+  </si>
+  <si>
+    <t>cuota</t>
+  </si>
+  <si>
+    <t>prete</t>
+  </si>
+  <si>
+    <t>cura</t>
+  </si>
+  <si>
+    <t>guarire</t>
+  </si>
+  <si>
+    <t>curar</t>
+  </si>
+  <si>
+    <t>corso; anno accademico</t>
+  </si>
+  <si>
+    <t>curso</t>
+  </si>
+  <si>
+    <t>giacca</t>
+  </si>
+  <si>
+    <t>chaqueta</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>ciattare</t>
+  </si>
+  <si>
+    <t>chatear</t>
+  </si>
+  <si>
+    <t>ragazzo</t>
+  </si>
+  <si>
+    <t>chico</t>
+  </si>
+  <si>
+    <t>chistoso</t>
+  </si>
+  <si>
+    <t>scontrarsi</t>
+  </si>
+  <si>
+    <t>chocar</t>
+  </si>
+  <si>
+    <t>autista</t>
+  </si>
+  <si>
+    <t>chófer</t>
   </si>
 </sst>
 </file>
@@ -2188,8 +3832,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B356" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:B356"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B638" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:B638"/>
   <tableColumns count="2">
     <tableColumn name="Italian" id="1"/>
     <tableColumn name="Spanish" id="2"/>
@@ -2486,7 +4130,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -5344,6 +6988,2262 @@
         <v>689</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
+      <c r="A357" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
+      <c r="A358" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
+      <c r="A359" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
+      <c r="A360" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
+      <c r="A361" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
+      <c r="A362" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
+      <c r="A363" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
+      <c r="A364" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
+      <c r="A365" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
+      <c r="A366" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75">
+      <c r="A367" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
+      <c r="A368" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
+      <c r="A369" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
+      <c r="A370" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
+      <c r="A371" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
+      <c r="A372" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75">
+      <c r="A373" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
+      <c r="A374" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75">
+      <c r="A375" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
+      <c r="A376" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
+      <c r="A377" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
+      <c r="A378" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
+      <c r="A379" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
+      <c r="A380" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
+      <c r="A381" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
+      <c r="A382" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
+      <c r="A383" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
+      <c r="A384" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
+      <c r="A385" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
+      <c r="A386" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
+      <c r="A387" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
+      <c r="A388" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
+      <c r="A389" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
+      <c r="A390" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
+      <c r="A391" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
+      <c r="A392" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
+      <c r="A393" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
+      <c r="A394" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
+      <c r="A395" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
+      <c r="A396" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
+      <c r="A397" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
+      <c r="A398" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
+      <c r="A399" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75">
+      <c r="A400" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75">
+      <c r="A401" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75">
+      <c r="A402" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75">
+      <c r="A403" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75">
+      <c r="A404" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75">
+      <c r="A405" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
+      <c r="A406" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75">
+      <c r="A407" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75">
+      <c r="A408" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
+      <c r="A409" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
+      <c r="A410" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75">
+      <c r="A411" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
+      <c r="A412" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75">
+      <c r="A413" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75">
+      <c r="A414" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75">
+      <c r="A415" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75">
+      <c r="A416" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75">
+      <c r="A417" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
+      <c r="A418" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
+      <c r="A419" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75">
+      <c r="A420" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75">
+      <c r="A421" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75">
+      <c r="A422" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75">
+      <c r="A423" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75">
+      <c r="A424" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75">
+      <c r="A425" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75">
+      <c r="A426" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75">
+      <c r="A427" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75">
+      <c r="A428" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
+      <c r="A429" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75">
+      <c r="A430" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75">
+      <c r="A431" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
+      <c r="A432" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
+      <c r="A433" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
+      <c r="A434" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
+      <c r="A435" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
+      <c r="A436" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
+      <c r="A437" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75">
+      <c r="A438" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
+      <c r="A439" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75">
+      <c r="A440" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75">
+      <c r="A441" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75">
+      <c r="A442" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75">
+      <c r="A443" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75">
+      <c r="A444" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75">
+      <c r="A445" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75">
+      <c r="A446" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
+      <c r="A447" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75">
+      <c r="A448" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75">
+      <c r="A449" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75">
+      <c r="A450" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75">
+      <c r="A451" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75">
+      <c r="A452" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75">
+      <c r="A453" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
+      <c r="A454" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
+      <c r="A455" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75">
+      <c r="A456" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75">
+      <c r="A457" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75">
+      <c r="A458" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75">
+      <c r="A459" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
+      <c r="A460" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
+      <c r="A461" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75">
+      <c r="A462" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
+      <c r="A463" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75">
+      <c r="A464" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
+      <c r="A465" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75">
+      <c r="A466" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75">
+      <c r="A467" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75">
+      <c r="A468" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
+      <c r="A469" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
+      <c r="A470" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
+      <c r="A471" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
+      <c r="A472" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75">
+      <c r="A473" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
+      <c r="A474" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75">
+      <c r="A475" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75">
+      <c r="A476" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75">
+      <c r="A477" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
+      <c r="A478" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75">
+      <c r="A479" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75">
+      <c r="A480" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75">
+      <c r="A481" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
+      <c r="A482" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
+      <c r="A483" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
+      <c r="A484" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
+      <c r="A485" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
+      <c r="A486" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
+      <c r="A487" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75">
+      <c r="A488" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
+      <c r="A489" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
+      <c r="A490" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75">
+      <c r="A491" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
+      <c r="A492" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
+      <c r="A493" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75">
+      <c r="A494" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75">
+      <c r="A495" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75">
+      <c r="A496" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75">
+      <c r="A497" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75">
+      <c r="A498" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75">
+      <c r="A499" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75">
+      <c r="A500" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75">
+      <c r="A501" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
+      <c r="A502" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75">
+      <c r="A503" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75">
+      <c r="A504" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
+      <c r="A505" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
+      <c r="A506" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75">
+      <c r="A507" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
+      <c r="A508" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75">
+      <c r="A509" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75">
+      <c r="A510" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75">
+      <c r="A511" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
+      <c r="A512" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75">
+      <c r="A513" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75">
+      <c r="A514" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
+      <c r="A515" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75">
+      <c r="A516" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
+      <c r="A517" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75">
+      <c r="A518" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
+      <c r="A519" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75">
+      <c r="A520" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75">
+      <c r="A521" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75">
+      <c r="A522" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75">
+      <c r="A523" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
+      <c r="A524" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75">
+      <c r="A525" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
+      <c r="A526" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
+      <c r="A527" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75">
+      <c r="A528" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75">
+      <c r="A529" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
+      <c r="A530" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75">
+      <c r="A531" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75">
+      <c r="A532" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
+      <c r="A533" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
+      <c r="A534" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
+      <c r="A535" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75">
+      <c r="A536" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
+      <c r="A537" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75">
+      <c r="A538" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75">
+      <c r="A539" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75">
+      <c r="A540" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75">
+      <c r="A541" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
+      <c r="A542" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
+      <c r="A543" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
+      <c r="A544" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75">
+      <c r="A545" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
+      <c r="A546" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75">
+      <c r="A547" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75">
+      <c r="A548" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75">
+      <c r="A549" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75">
+      <c r="A550" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75">
+      <c r="A551" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75">
+      <c r="A552" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75">
+      <c r="A553" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75">
+      <c r="A554" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
+      <c r="A555" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
+      <c r="A556" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
+      <c r="A557" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
+      <c r="A558" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
+      <c r="A559" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
+      <c r="A560" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
+      <c r="A561" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75">
+      <c r="A562" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
+      <c r="A563" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75">
+      <c r="A564" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75">
+      <c r="A565" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
+      <c r="A566" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
+      <c r="A567" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75">
+      <c r="A568" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75">
+      <c r="A569" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
+      <c r="A570" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75">
+      <c r="A571" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
+      <c r="A572" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75">
+      <c r="A573" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75">
+      <c r="A574" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75">
+      <c r="A575" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75">
+      <c r="A576" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
+      <c r="A577" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
+      <c r="A578" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75">
+      <c r="A579" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75">
+      <c r="A580" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75">
+      <c r="A581" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
+      <c r="A582" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
+      <c r="A583" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75">
+      <c r="A584" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75">
+      <c r="A585" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75">
+      <c r="A586" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
+      <c r="A587" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75">
+      <c r="A588" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
+      <c r="A589" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75">
+      <c r="A590" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75">
+      <c r="A591" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75">
+      <c r="A592" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75">
+      <c r="A593" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
+      <c r="A594" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
+      <c r="A595" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
+      <c r="A596" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75">
+      <c r="A597" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
+      <c r="A598" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
+      <c r="A599" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
+      <c r="A600" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75">
+      <c r="A601" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
+      <c r="A602" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75">
+      <c r="A603" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75">
+      <c r="A604" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75">
+      <c r="A605" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75">
+      <c r="A606" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
+      <c r="A607" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
+      <c r="A608" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
+      <c r="A609" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75">
+      <c r="A610" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75">
+      <c r="A611" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
+      <c r="A612" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
+      <c r="A613" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75">
+      <c r="A614" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75">
+      <c r="A615" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75">
+      <c r="A616" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75">
+      <c r="A617" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75">
+      <c r="A618" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75">
+      <c r="A619" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75">
+      <c r="A620" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75">
+      <c r="A621" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75">
+      <c r="A622" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75">
+      <c r="A623" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75">
+      <c r="A624" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75">
+      <c r="A625" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
+      <c r="A626" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
+      <c r="A627" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75">
+      <c r="A628" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75">
+      <c r="A629" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
+      <c r="A630" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
+      <c r="A631" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
+      <c r="A632" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
+      <c r="A633" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75">
+      <c r="A634" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75">
+      <c r="A635" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
+      <c r="A636" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
+      <c r="A637" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
+      <c r="A638" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -2953,7 +2953,7 @@
     <t>competencia desleal</t>
   </si>
   <si>
-    <t>compettere</t>
+    <t>competere</t>
   </si>
   <si>
     <t>competir</t>
@@ -3745,7 +3745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
